--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="439">
   <si>
     <t>Path</t>
   </si>
@@ -518,10 +518,7 @@
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
   </si>
   <si>
-    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-category</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -1580,8 +1577,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3311,7 +3308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>155</v>
       </c>
@@ -3321,13 +3318,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3371,13 +3368,11 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3413,10 +3408,10 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>154</v>
@@ -3427,7 +3422,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3453,10 +3448,10 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3486,11 +3481,11 @@
         <v>129</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3522,16 +3517,16 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3539,7 +3534,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3562,16 +3557,16 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3621,7 +3616,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3642,7 +3637,7 @@
         <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3653,7 +3648,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3676,13 +3671,13 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3733,7 +3728,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3754,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3765,7 +3760,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3788,16 +3783,16 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3826,11 +3821,11 @@
         <v>141</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
       </c>
@@ -3847,7 +3842,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>52</v>
@@ -3862,24 +3857,24 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3902,16 +3897,16 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3961,7 +3956,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>52</v>
@@ -3976,24 +3971,24 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4016,16 +4011,16 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4075,7 +4070,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4090,24 +4085,24 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4130,13 +4125,13 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4187,7 +4182,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4202,16 +4197,16 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4219,7 +4214,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4242,13 +4237,13 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4299,7 +4294,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4314,24 +4309,24 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4354,13 +4349,13 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4411,7 +4406,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4426,16 +4421,16 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4443,7 +4438,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4466,13 +4461,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4523,7 +4518,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4538,16 +4533,16 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4555,7 +4550,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4581,13 +4576,13 @@
         <v>137</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4616,11 +4611,11 @@
         <v>141</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4637,7 +4632,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4652,13 +4647,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4669,7 +4664,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4692,13 +4687,13 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4749,7 +4744,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4770,10 +4765,10 @@
         <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4781,7 +4776,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4807,13 +4802,13 @@
         <v>137</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4842,11 +4837,11 @@
         <v>141</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4863,7 +4858,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4878,24 +4873,24 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4918,16 +4913,16 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4977,7 +4972,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4992,16 +4987,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5009,7 +5004,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5032,13 +5027,13 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5089,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5104,13 +5099,13 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5121,7 +5116,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5147,10 +5142,10 @@
         <v>66</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5201,7 +5196,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5222,7 +5217,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5233,7 +5228,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5256,13 +5251,13 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5313,7 +5308,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5328,13 +5323,13 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -5345,7 +5340,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5371,14 +5366,14 @@
         <v>116</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5427,7 +5422,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5442,13 +5437,13 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
@@ -5459,7 +5454,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5485,13 +5480,13 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5520,11 +5515,11 @@
         <v>141</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5541,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5562,7 +5557,7 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5573,7 +5568,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5596,13 +5591,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5653,7 +5648,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5668,13 +5663,13 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -5685,7 +5680,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5708,13 +5703,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5765,7 +5760,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5780,13 +5775,13 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5797,7 +5792,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5805,10 +5800,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>53</v>
@@ -5820,16 +5815,16 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5879,7 +5874,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5894,13 +5889,13 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -5911,7 +5906,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5934,13 +5929,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5991,7 +5986,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6009,10 +6004,10 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6023,7 +6018,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6049,10 +6044,10 @@
         <v>54</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6103,28 +6098,28 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6135,7 +6130,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6161,10 +6156,10 @@
         <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>112</v>
@@ -6217,7 +6212,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6238,7 +6233,7 @@
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6249,11 +6244,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6275,10 +6270,10 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>112</v>
@@ -6333,7 +6328,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6365,7 +6360,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6388,16 +6383,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6447,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6468,7 +6463,7 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6479,7 +6474,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6505,10 +6500,10 @@
         <v>54</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6559,28 +6554,28 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6591,7 +6586,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6617,10 +6612,10 @@
         <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>112</v>
@@ -6673,7 +6668,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6694,7 +6689,7 @@
         <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6705,11 +6700,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6731,10 +6726,10 @@
         <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>112</v>
@@ -6789,7 +6784,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6821,7 +6816,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6844,13 +6839,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6901,7 +6896,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6922,7 +6917,7 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -6933,7 +6928,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6956,13 +6951,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7013,7 +7008,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7034,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7045,7 +7040,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7068,13 +7063,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7125,7 +7120,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7146,7 +7141,7 @@
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7157,7 +7152,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7180,19 +7175,19 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7241,7 +7236,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7259,10 +7254,10 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7273,7 +7268,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7296,16 +7291,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7355,7 +7350,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7373,21 +7368,21 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7410,13 +7405,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7467,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7485,21 +7480,21 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7522,16 +7517,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7581,7 +7576,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7599,10 +7594,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7613,7 +7608,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7636,13 +7631,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7693,7 +7688,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7714,10 +7709,10 @@
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -7725,7 +7720,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7748,13 +7743,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7805,7 +7800,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7823,10 +7818,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7837,7 +7832,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7863,10 +7858,10 @@
         <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7917,28 +7912,28 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -7949,7 +7944,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7975,10 +7970,10 @@
         <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>112</v>
@@ -8031,7 +8026,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8052,7 +8047,7 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8063,11 +8058,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8089,10 +8084,10 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>112</v>
@@ -8147,7 +8142,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8179,7 +8174,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8202,16 +8197,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8240,11 +8235,11 @@
         <v>141</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8261,7 +8256,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>52</v>
@@ -8279,21 +8274,21 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8319,10 +8314,10 @@
         <v>137</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8352,11 +8347,11 @@
         <v>141</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8373,7 +8368,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8391,21 +8386,21 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8428,13 +8423,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8485,7 +8480,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8500,13 +8495,13 @@
         <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8517,11 +8512,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8540,16 +8535,16 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8599,7 +8594,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8620,7 +8615,7 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8631,7 +8626,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8654,16 +8649,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8713,7 +8708,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8728,13 +8723,13 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="570">
   <si>
     <t>Path</t>
   </si>
@@ -1029,6 +1029,450 @@
     <t>see dosageInstruction mapping</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>The order of the dosage instructions</t>
+  </si>
+  <si>
+    <t>Indicates the order in which the dosage instructions should be applied or interpreted.</t>
+  </si>
+  <si>
+    <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.</t>
+  </si>
+  <si>
+    <t>Dosage.sequence</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>TQ1-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.text</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions e.g. SIG.</t>
+  </si>
+  <si>
+    <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>RXO-6; RXE-21</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
+  </si>
+  <si>
+    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"</t>
+  </si>
+  <si>
+    <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").</t>
+  </si>
+  <si>
+    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
+  </si>
+  <si>
+    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+  </si>
+  <si>
+    <t>Dosage.additionalInstruction</t>
+  </si>
+  <si>
+    <t>RXO-7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.patientInstruction</t>
+  </si>
+  <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
+    <t>Instructions in terms that are understood by the patient or consumer.</t>
+  </si>
+  <si>
+    <t>Dosage.patientInstruction</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing
+</t>
+  </si>
+  <si>
+    <t>When medication should be administered</t>
+  </si>
+  <si>
+    <t>When medication should be administered.</t>
+  </si>
+  <si>
+    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Take "as needed" (for x)</t>
+  </si>
+  <si>
+    <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option), or it indicates the precondition for taking the Medication (CodeableConcept).</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.site</t>
+  </si>
+  <si>
+    <t>Body site to administer to</t>
+  </si>
+  <si>
+    <t>Body site to administer to.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route</t>
+  </si>
+  <si>
+    <t>How drug should enter body</t>
+  </si>
+  <si>
+    <t>How drug should enter body.</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method</t>
+  </si>
+  <si>
+    <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>Technique for administering medication.</t>
+  </si>
+  <si>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>Amount of medication administered</t>
+  </si>
+  <si>
+    <t>The amount of medication administered.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
+  </si>
+  <si>
+    <t>If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>Range
+Quantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>Ratio
+RangeQuantity {SimpleQuantity}</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-23, RXE-19</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest</t>
   </si>
   <si>
@@ -1051,47 +1495,12 @@
     <t>MedicationRequest.dispenseRequest.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.initialFill</t>
   </si>
   <si>
@@ -1117,10 +1526,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
   </si>
   <si>
     <t>First fill quantity</t>
@@ -1284,10 +1689,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
   </si>
   <si>
     <t>Whether substitution is allowed or not</t>
@@ -1545,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1554,7 +1955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.07421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1564,7 +1965,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1577,11 +1978,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5790,7 +6191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>313</v>
       </c>
@@ -5800,13 +6201,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
@@ -5929,13 +6330,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5986,7 +6387,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5998,16 +6399,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6018,18 +6419,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6041,15 +6442,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6086,16 +6489,16 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>329</v>
@@ -6104,13 +6507,13 @@
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
@@ -6119,7 +6522,7 @@
         <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6130,11 +6533,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6147,10 +6550,10 @@
         <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>97</v>
@@ -6164,7 +6567,9 @@
       <c r="M41" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6233,7 +6638,7 @@
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6248,26 +6653,26 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>97</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>337</v>
@@ -6275,11 +6680,9 @@
       <c r="L42" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6328,19 +6731,19 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>44</v>
@@ -6349,18 +6752,18 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>95</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6368,33 +6771,33 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>321</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6442,7 +6845,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6463,18 +6866,18 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6485,7 +6888,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6494,19 +6897,23 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6530,13 +6937,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6554,19 +6961,19 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>44</v>
@@ -6575,29 +6982,29 @@
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6606,20 +7013,18 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6668,19 +7073,19 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
@@ -6689,53 +7094,53 @@
         <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>113</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6784,19 +7189,19 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
@@ -6805,7 +7210,7 @@
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>95</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6816,7 +7221,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6836,18 +7241,20 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6872,13 +7279,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6896,7 +7303,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6917,18 +7324,18 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6942,25 +7349,29 @@
         <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -6984,13 +7395,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7008,7 +7419,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7029,18 +7440,18 @@
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7060,19 +7471,21 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>354</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7096,13 +7509,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7120,7 +7533,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7141,18 +7554,18 @@
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7172,22 +7585,22 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>362</v>
+        <v>137</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7212,13 +7625,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7236,7 +7649,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7254,21 +7667,21 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7279,7 +7692,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7288,20 +7701,18 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7350,13 +7761,13 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7368,21 +7779,21 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7405,13 +7816,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>349</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7462,7 +7873,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7474,38 +7885,38 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>382</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7517,16 +7928,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7564,40 +7975,40 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7608,7 +8019,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7628,19 +8039,21 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7664,13 +8077,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7688,7 +8101,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7709,18 +8122,18 @@
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7740,19 +8153,23 @@
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7800,7 +8217,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7818,21 +8235,21 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7852,19 +8269,23 @@
         <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>327</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -7912,7 +8333,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>329</v>
+        <v>439</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7924,7 +8345,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -7933,29 +8354,29 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -7964,21 +8385,23 @@
         <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>97</v>
+        <v>443</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>445</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8026,19 +8449,19 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>334</v>
+        <v>448</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>44</v>
@@ -8047,53 +8470,53 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>97</v>
+        <v>452</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>337</v>
+        <v>453</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>338</v>
+        <v>454</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>112</v>
+        <v>455</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>113</v>
+        <v>456</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8142,19 +8565,19 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>339</v>
+        <v>457</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
@@ -8163,7 +8586,7 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>95</v>
+        <v>458</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8174,7 +8597,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8182,7 +8605,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>52</v>
@@ -8194,21 +8617,21 @@
         <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8232,13 +8655,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8256,10 +8679,10 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>52</v>
@@ -8274,21 +8697,21 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>410</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8311,13 +8734,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>137</v>
+        <v>465</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8344,13 +8767,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>415</v>
+        <v>44</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8368,7 +8791,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8386,21 +8809,21 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>418</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8423,13 +8846,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8480,7 +8903,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>419</v>
+        <v>323</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8492,16 +8915,16 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8512,11 +8935,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8535,16 +8958,16 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>427</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>430</v>
+        <v>112</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8594,7 +9017,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8606,7 +9029,7 @@
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>44</v>
@@ -8615,7 +9038,7 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8626,11 +9049,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8643,24 +9066,26 @@
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>333</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8708,7 +9133,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8720,26 +9145,2406 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AJ64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN63">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8749,7 +11554,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -4387,7 +4387,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>203</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="637">
   <si>
     <t>Path</t>
   </si>
@@ -396,6 +396,10 @@
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -411,44 +415,238 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>MedicationRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.statusReason</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MedicationRequest.statusReason</t>
   </si>
   <si>
     <t>Reason for current status</t>
@@ -518,7 +716,14 @@
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-category</t>
+    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -529,6 +734,36 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>NusingMedicationType</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-category</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-injection</t>
+  </si>
+  <si>
+    <t>Perfusion</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-perfusion</t>
+  </si>
+  <si>
+    <t>Percutaneous</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-percutaneous</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-other</t>
   </si>
   <si>
     <t>MedicationRequest.priority</t>
@@ -1032,31 +1267,7 @@
     <t>MedicationRequest.dosageInstruction.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.modifierExtension</t>
@@ -1565,10 +1776,6 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period supply is authorized for</t>
   </si>
   <si>
@@ -1649,10 +1856,6 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Intended dispenser</t>
@@ -1946,7 +2149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1956,7 +2159,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.88671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1979,7 +2182,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3269,7 +3472,7 @@
         <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>44</v>
@@ -3325,16 +3528,14 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>115</v>
@@ -3352,56 +3553,58 @@
         <v>64</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3427,13 +3630,13 @@
         <v>44</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>44</v>
@@ -3451,13 +3654,13 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
@@ -3466,24 +3669,24 @@
         <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3497,7 +3700,7 @@
         <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>44</v>
@@ -3506,17 +3709,15 @@
         <v>44</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3541,13 +3742,13 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>44</v>
@@ -3565,7 +3766,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3577,16 +3778,16 @@
         <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>44</v>
@@ -3597,39 +3798,39 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3655,63 +3856,63 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3719,33 +3920,35 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
       </c>
@@ -3769,11 +3972,13 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3791,13 +3996,13 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>44</v>
@@ -3809,21 +4014,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3846,16 +4051,20 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
       </c>
@@ -3879,13 +4088,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3903,7 +4112,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3918,24 +4127,24 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>44</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3943,7 +4152,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>52</v>
@@ -3952,36 +4161,38 @@
         <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>44</v>
@@ -4017,7 +4228,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -4038,18 +4249,18 @@
         <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4057,7 +4268,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -4072,15 +4283,17 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
@@ -4093,7 +4306,7 @@
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -4129,7 +4342,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4150,18 +4363,18 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4169,13 +4382,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -4184,17 +4397,15 @@
         <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4219,13 +4430,13 @@
         <v>44</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>44</v>
@@ -4246,7 +4457,7 @@
         <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>52</v>
@@ -4258,24 +4469,24 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4283,13 +4494,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>44</v>
@@ -4298,16 +4509,16 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4357,10 +4568,10 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>52</v>
@@ -4372,24 +4583,24 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4397,7 +4608,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
@@ -4406,22 +4617,22 @@
         <v>53</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4447,13 +4658,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4471,10 +4682,10 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>52</v>
@@ -4486,24 +4697,24 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4514,10 +4725,10 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>44</v>
@@ -4526,15 +4737,17 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4559,13 +4772,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4583,13 +4796,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4598,16 +4811,16 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4615,7 +4828,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4623,7 +4836,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>52</v>
@@ -4632,21 +4845,23 @@
         <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4671,13 +4886,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4695,10 +4910,10 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>52</v>
@@ -4710,24 +4925,24 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4738,7 +4953,7 @@
         <v>52</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>53</v>
@@ -4747,18 +4962,20 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4783,37 +5000,35 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4822,38 +5037,40 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4862,15 +5079,17 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4895,13 +5114,11 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4919,13 +5136,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4934,26 +5151,28 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4965,25 +5184,25 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5009,13 +5228,11 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -5033,13 +5250,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -5048,16 +5265,16 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -5065,9 +5282,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>44</v>
       </c>
@@ -5088,15 +5307,17 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -5121,13 +5342,11 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5145,13 +5364,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5163,13 +5382,13 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -5177,9 +5396,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
       </c>
@@ -5200,16 +5421,16 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5235,13 +5456,11 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5259,7 +5478,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5274,26 +5493,28 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5302,7 +5523,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -5314,16 +5535,16 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5349,13 +5570,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5373,7 +5592,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5388,16 +5607,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5405,7 +5624,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5416,7 +5635,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5428,13 +5647,13 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5461,13 +5680,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5485,13 +5704,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5500,16 +5719,16 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5517,7 +5736,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5528,27 +5747,29 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5597,13 +5818,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5618,7 +5839,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5629,7 +5850,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5640,7 +5861,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -5652,13 +5873,13 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5709,13 +5930,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5724,13 +5945,13 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -5741,7 +5962,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5749,7 +5970,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5764,18 +5985,18 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
       </c>
@@ -5799,13 +6020,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5823,10 +6044,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5838,24 +6059,24 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5863,31 +6084,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5913,13 +6134,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5937,10 +6158,10 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>52</v>
@@ -5952,24 +6173,24 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5980,10 +6201,10 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -5992,15 +6213,17 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -6049,13 +6272,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -6064,24 +6287,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6095,7 +6318,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>44</v>
@@ -6104,13 +6327,13 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6161,7 +6384,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6176,16 +6399,16 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -6193,7 +6416,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6204,7 +6427,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6213,20 +6436,18 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6275,13 +6496,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6290,24 +6511,24 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6315,28 +6536,28 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6387,7 +6608,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6399,41 +6620,41 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>44</v>
@@ -6442,17 +6663,15 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6489,87 +6708,85 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6593,13 +6810,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6617,28 +6834,28 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6649,7 +6866,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6669,21 +6886,19 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6731,7 +6946,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6752,18 +6967,18 @@
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>342</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6771,33 +6986,33 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6821,13 +7036,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6845,13 +7060,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6860,24 +7075,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6897,23 +7112,21 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>137</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6937,13 +7150,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6961,7 +7174,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6976,24 +7189,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7004,7 +7217,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -7016,13 +7229,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7073,13 +7286,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -7088,24 +7301,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>357</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7116,7 +7329,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7128,20 +7341,16 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>363</v>
+        <v>66</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -7189,13 +7398,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -7210,7 +7419,7 @@
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7221,7 +7430,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7232,7 +7441,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7244,17 +7453,15 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7279,13 +7486,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7303,13 +7510,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7318,24 +7525,24 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7358,19 +7565,17 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7395,13 +7600,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7419,7 +7624,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7434,24 +7639,24 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7471,21 +7676,21 @@
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7509,13 +7714,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7533,7 +7738,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7554,18 +7759,18 @@
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7576,7 +7781,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -7585,23 +7790,19 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7625,13 +7826,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7649,13 +7850,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7664,24 +7865,24 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>408</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7695,22 +7896,22 @@
         <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7761,7 +7962,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7776,24 +7977,24 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>414</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7804,7 +8005,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7816,15 +8017,17 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7873,28 +8076,28 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7905,18 +8108,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7928,17 +8131,15 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7975,31 +8176,31 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
@@ -8008,7 +8209,7 @@
         <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -8019,18 +8220,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -8039,21 +8240,21 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8077,43 +8278,43 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>421</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>422</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>423</v>
+        <v>137</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
@@ -8122,53 +8323,53 @@
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>426</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>429</v>
+        <v>112</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>430</v>
+        <v>113</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8217,19 +8418,19 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
@@ -8238,18 +8439,18 @@
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>95</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>432</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8272,19 +8473,17 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8333,7 +8532,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8354,18 +8553,18 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8373,13 +8572,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>44</v>
@@ -8388,19 +8587,17 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8449,7 +8646,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8470,18 +8667,18 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8492,7 +8689,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8504,19 +8701,19 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>452</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8541,13 +8738,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8565,13 +8762,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8586,18 +8783,18 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>44</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8620,18 +8817,16 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>452</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8679,7 +8874,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8700,18 +8895,18 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>44</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8731,19 +8926,23 @@
         <v>44</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8791,7 +8990,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8809,10 +9008,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8823,7 +9022,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8843,18 +9042,20 @@
         <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>440</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8879,13 +9080,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8903,7 +9104,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>323</v>
+        <v>446</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8915,7 +9116,7 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
@@ -8924,52 +9125,54 @@
         <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>324</v>
+        <v>447</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>44</v>
+        <v>448</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8993,13 +9196,13 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>44</v>
+        <v>454</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -9017,19 +9220,19 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>44</v>
@@ -9038,53 +9241,51 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9109,13 +9310,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -9133,19 +9334,19 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>334</v>
+        <v>465</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
@@ -9154,18 +9355,18 @@
         <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>95</v>
+        <v>466</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>44</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9185,21 +9386,23 @@
         <v>44</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>465</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9223,13 +9426,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -9247,7 +9450,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9268,13 +9471,13 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9290,7 +9493,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9299,16 +9502,16 @@
         <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>479</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>321</v>
+        <v>480</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>322</v>
+        <v>481</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9359,19 +9562,19 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>323</v>
+        <v>482</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
@@ -9380,29 +9583,29 @@
         <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>44</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9414,17 +9617,15 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9473,19 +9674,19 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
@@ -9494,7 +9695,7 @@
         <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
@@ -9505,11 +9706,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>331</v>
+        <v>109</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9522,26 +9723,24 @@
         <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>113</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9577,19 +9776,19 @@
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9610,7 +9809,7 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9621,7 +9820,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9641,19 +9840,21 @@
         <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>452</v>
+        <v>149</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9677,13 +9878,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9701,7 +9902,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9722,18 +9923,18 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>484</v>
+        <v>44</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9753,19 +9954,23 @@
         <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
       </c>
@@ -9813,7 +10018,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9834,18 +10039,18 @@
         <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9865,19 +10070,23 @@
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
       </c>
@@ -9925,7 +10134,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9946,18 +10155,18 @@
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>44</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9977,22 +10186,22 @@
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -10041,7 +10250,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10059,21 +10268,21 @@
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>44</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10093,21 +10302,23 @@
         <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
@@ -10155,7 +10366,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10173,21 +10384,21 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>506</v>
+        <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>508</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10207,19 +10418,21 @@
         <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10267,7 +10480,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10285,21 +10498,21 @@
         <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>512</v>
+        <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>514</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10322,17 +10535,15 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10381,7 +10592,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10399,10 +10610,10 @@
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10413,7 +10624,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10436,13 +10647,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>522</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>523</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>524</v>
+        <v>130</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10493,7 +10704,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>521</v>
+        <v>131</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10505,7 +10716,7 @@
         <v>44</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>44</v>
@@ -10514,10 +10725,10 @@
         <v>44</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10525,18 +10736,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>44</v>
@@ -10548,15 +10759,17 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>465</v>
+        <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>527</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10605,28 +10818,28 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>526</v>
+        <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>529</v>
+        <v>44</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>530</v>
+        <v>132</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
@@ -10637,39 +10850,43 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10717,19 +10934,19 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>44</v>
@@ -10738,7 +10955,7 @@
         <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
@@ -10749,18 +10966,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>44</v>
@@ -10772,16 +10989,16 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>534</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>326</v>
+        <v>543</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>327</v>
+        <v>544</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10831,19 +11048,19 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>329</v>
+        <v>542</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>44</v>
@@ -10852,7 +11069,7 @@
         <v>44</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>324</v>
+        <v>546</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>44</v>
@@ -10863,43 +11080,39 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>331</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>332</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10947,19 +11160,19 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>44</v>
@@ -10968,7 +11181,7 @@
         <v>44</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>44</v>
@@ -10979,18 +11192,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>44</v>
@@ -11002,16 +11215,16 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>371</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>535</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>536</v>
+        <v>135</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>537</v>
+        <v>112</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11037,13 +11250,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>538</v>
+        <v>44</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>539</v>
+        <v>44</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11061,71 +11274,75 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>137</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>529</v>
+        <v>44</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>540</v>
+        <v>132</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>541</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>543</v>
+        <v>401</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>44</v>
       </c>
@@ -11149,13 +11366,13 @@
         <v>44</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>545</v>
+        <v>44</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>546</v>
+        <v>44</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>44</v>
@@ -11173,34 +11390,34 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>542</v>
+        <v>403</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>547</v>
+        <v>44</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>548</v>
+        <v>95</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>549</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -11228,13 +11445,13 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11300,13 +11517,13 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>554</v>
+        <v>44</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>547</v>
+        <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11317,18 +11534,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>557</v>
+        <v>44</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>44</v>
@@ -11340,17 +11557,15 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -11399,13 +11614,13 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>44</v>
@@ -11420,7 +11635,7 @@
         <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
@@ -11431,7 +11646,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11442,7 +11657,7 @@
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>44</v>
@@ -11454,17 +11669,15 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>44</v>
@@ -11513,13 +11726,13 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>44</v>
@@ -11528,23 +11741,1611 @@
         <v>64</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AK84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM85" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AM84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN84" t="s" s="2">
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11554,7 +13355,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -5409,7 +5409,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="636">
   <si>
     <t>Path</t>
   </si>
@@ -707,7 +707,7 @@
     <t>MedicationRequest.category</t>
   </si>
   <si>
-    <t>Type of medication usage</t>
+    <t>Type of medication usage - use one code that provide the best detail</t>
   </si>
   <si>
     <t>Indicates the type of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
@@ -736,34 +736,31 @@
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
   </si>
   <si>
-    <t>NusingMedicationType</t>
+    <t>NusingMedicationType-highLevelCode</t>
+  </si>
+  <si>
+    <t>Type of medication usage</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-category</t>
   </si>
   <si>
-    <t>Injection</t>
+    <t>InjectionSpecializationCodes</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-injection</t>
   </si>
   <si>
-    <t>Perfusion</t>
+    <t>PerfusionSpecializationCodes</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-perfusion</t>
   </si>
   <si>
-    <t>Percutaneous</t>
+    <t>PercutaneousSpecializationCodes</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-percutaneous</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-other</t>
   </si>
   <si>
     <t>MedicationRequest.priority</t>
@@ -2149,7 +2146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2159,7 +2156,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4953,7 +4950,7 @@
         <v>52</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>53</v>
@@ -5064,7 +5061,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
@@ -5082,7 +5079,7 @@
         <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>222</v>
@@ -5118,7 +5115,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -5171,7 +5168,7 @@
         <v>220</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>44</v>
@@ -5196,7 +5193,7 @@
         <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>222</v>
@@ -5232,7 +5229,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -5285,7 +5282,7 @@
         <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>44</v>
@@ -5310,7 +5307,7 @@
         <v>149</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>222</v>
@@ -5346,7 +5343,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5399,7 +5396,7 @@
         <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
@@ -5424,7 +5421,7 @@
         <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>222</v>
@@ -5460,7 +5457,7 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5510,11 +5507,9 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5532,20 +5527,18 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5572,33 +5565,35 @@
       <c r="W30" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X30" s="2"/>
+      <c r="X30" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="Y30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -5607,16 +5602,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5624,7 +5619,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5641,21 +5636,23 @@
         <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5680,13 +5677,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5704,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5719,16 +5716,16 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5736,7 +5733,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5753,23 +5750,21 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5818,7 +5813,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5839,7 +5834,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5848,9 +5843,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5858,13 +5853,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5873,15 +5868,17 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5906,13 +5903,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5930,10 +5927,10 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>52</v>
@@ -5945,24 +5942,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5985,16 +5982,16 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6020,13 +6017,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -6044,7 +6041,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>52</v>
@@ -6059,24 +6056,24 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6084,7 +6081,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>52</v>
@@ -6096,19 +6093,19 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6158,10 +6155,10 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>52</v>
@@ -6173,24 +6170,24 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6201,10 +6198,10 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -6213,17 +6210,15 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -6272,13 +6267,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -6287,24 +6282,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>288</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6315,7 +6310,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6324,16 +6319,16 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6384,13 +6379,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -6399,24 +6394,24 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6424,13 +6419,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
@@ -6439,13 +6434,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6496,7 +6491,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6511,24 +6506,24 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6536,7 +6531,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>52</v>
@@ -6548,16 +6543,16 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6608,7 +6603,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6623,16 +6618,16 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -6640,7 +6635,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6660,18 +6655,20 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6696,13 +6693,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6720,7 +6717,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6735,24 +6732,24 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6766,26 +6763,24 @@
         <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6810,13 +6805,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>322</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6834,7 +6829,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6849,16 +6844,16 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6866,7 +6861,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6877,7 +6872,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6889,15 +6884,17 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6922,13 +6919,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6946,13 +6943,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6961,24 +6958,24 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7001,16 +6998,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>149</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7036,13 +7033,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -7060,7 +7057,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -7075,24 +7072,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM43" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AN43" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7112,20 +7109,18 @@
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -7174,7 +7169,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7189,16 +7184,16 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -7206,7 +7201,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7229,13 +7224,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7286,7 +7281,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7301,13 +7296,13 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7318,7 +7313,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7341,13 +7336,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>66</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7398,7 +7393,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7413,13 +7408,13 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7428,9 +7423,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7441,10 +7436,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7453,16 +7448,18 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>359</v>
+        <v>116</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7510,13 +7507,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7525,13 +7522,13 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7540,9 +7537,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7556,27 +7553,27 @@
         <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7600,13 +7597,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7624,7 +7621,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7639,13 +7636,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7656,7 +7653,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7667,7 +7664,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
@@ -7679,17 +7676,15 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7714,13 +7709,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>375</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7738,13 +7733,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7753,13 +7748,13 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7768,9 +7763,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7784,7 +7779,7 @@
         <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
@@ -7793,13 +7788,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7850,7 +7845,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7865,13 +7860,13 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7880,9 +7875,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7896,7 +7891,7 @@
         <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>44</v>
@@ -7905,15 +7900,17 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7962,7 +7959,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7977,13 +7974,13 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7994,7 +7991,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8005,7 +8002,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -8017,17 +8014,15 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -8076,28 +8071,28 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>131</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>395</v>
+        <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -8112,14 +8107,14 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -8131,15 +8126,17 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -8176,31 +8173,31 @@
         <v>44</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
@@ -8224,7 +8221,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8237,24 +8234,26 @@
         <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8290,19 +8289,19 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>137</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8323,7 +8322,7 @@
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8334,42 +8333,40 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>113</v>
+        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8418,19 +8415,19 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
@@ -8439,18 +8436,18 @@
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>95</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8458,13 +8455,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>44</v>
@@ -8473,17 +8470,17 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>405</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8532,7 +8529,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8553,18 +8550,18 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8572,13 +8569,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>44</v>
@@ -8587,17 +8584,19 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8622,13 +8621,13 @@
         <v>44</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>44</v>
@@ -8646,13 +8645,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8667,18 +8666,18 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8689,7 +8688,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
@@ -8701,20 +8700,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8738,13 +8733,13 @@
         <v>44</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>44</v>
@@ -8762,13 +8757,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8783,18 +8778,18 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8817,16 +8812,20 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>54</v>
+        <v>431</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8895,18 +8894,18 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>426</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8929,20 +8928,18 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8966,13 +8963,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8990,7 +8987,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -9011,18 +9008,18 @@
         <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9036,7 +9033,7 @@
         <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>44</v>
@@ -9045,18 +9042,20 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>440</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -9083,10 +9082,10 @@
         <v>206</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -9104,7 +9103,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -9125,18 +9124,18 @@
         <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9150,7 +9149,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -9162,16 +9161,14 @@
         <v>149</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -9199,10 +9196,10 @@
         <v>206</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -9220,7 +9217,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -9241,18 +9238,18 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9278,14 +9275,16 @@
         <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9313,10 +9312,10 @@
         <v>206</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -9334,7 +9333,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9355,18 +9354,18 @@
         <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9377,7 +9376,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -9389,20 +9388,16 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>149</v>
+        <v>478</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
       </c>
@@ -9426,13 +9421,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -9450,13 +9445,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -9471,18 +9466,18 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>476</v>
+        <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9493,7 +9488,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9502,16 +9497,16 @@
         <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>479</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>481</v>
+        <v>130</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9562,19 +9557,19 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>482</v>
+        <v>131</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
@@ -9583,13 +9578,13 @@
         <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -9598,14 +9593,14 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9617,15 +9612,17 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9662,31 +9659,31 @@
         <v>44</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
@@ -9710,14 +9707,14 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
@@ -9726,21 +9723,21 @@
         <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>486</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9764,43 +9761,43 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>137</v>
+        <v>491</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>44</v>
@@ -9809,18 +9806,18 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>44</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9843,17 +9840,19 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9878,13 +9877,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>490</v>
+        <v>44</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9902,7 +9901,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9923,18 +9922,18 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9957,19 +9956,19 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -10018,7 +10017,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -10039,18 +10038,18 @@
         <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10073,19 +10072,19 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -10134,7 +10133,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10155,18 +10154,18 @@
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10189,19 +10188,19 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -10250,7 +10249,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10271,18 +10270,18 @@
         <v>44</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>519</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10305,19 +10304,17 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10366,7 +10363,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10387,7 +10384,7 @@
         <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
@@ -10398,7 +10395,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10418,21 +10415,19 @@
         <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>531</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10498,10 +10493,10 @@
         <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>44</v>
+        <v>536</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
@@ -10512,7 +10507,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10535,13 +10530,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>534</v>
+        <v>54</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>535</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>536</v>
+        <v>130</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10592,7 +10587,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>533</v>
+        <v>131</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10604,16 +10599,16 @@
         <v>44</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>537</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10628,14 +10623,14 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>44</v>
@@ -10647,15 +10642,17 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10704,19 +10701,19 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>44</v>
@@ -10740,7 +10737,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10753,24 +10750,26 @@
         <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>137</v>
+        <v>402</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10839,7 +10838,7 @@
         <v>44</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
@@ -10854,39 +10853,37 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>97</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>401</v>
+        <v>542</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>543</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>44</v>
       </c>
@@ -10934,19 +10931,19 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>403</v>
+        <v>541</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>44</v>
@@ -10955,7 +10952,7 @@
         <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>95</v>
+        <v>545</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
@@ -10966,7 +10963,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10989,17 +10986,15 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>543</v>
+        <v>129</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>44</v>
@@ -11048,7 +11043,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>542</v>
+        <v>131</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11060,7 +11055,7 @@
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>44</v>
@@ -11069,7 +11064,7 @@
         <v>44</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>546</v>
+        <v>132</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>44</v>
@@ -11084,14 +11079,14 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>44</v>
@@ -11103,15 +11098,17 @@
         <v>44</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11160,19 +11157,19 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>44</v>
@@ -11196,7 +11193,7 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11209,24 +11206,26 @@
         <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>137</v>
+        <v>402</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11295,7 +11294,7 @@
         <v>44</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
@@ -11310,39 +11309,35 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>520</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>401</v>
+        <v>550</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>44</v>
       </c>
@@ -11390,19 +11385,19 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>403</v>
+        <v>549</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>44</v>
@@ -11411,7 +11406,7 @@
         <v>44</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>95</v>
+        <v>552</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>44</v>
@@ -11422,7 +11417,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11445,13 +11440,13 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11502,7 +11497,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11523,7 +11518,7 @@
         <v>44</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11534,7 +11529,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11557,13 +11552,13 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11614,7 +11609,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11635,7 +11630,7 @@
         <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
@@ -11646,7 +11641,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11669,16 +11664,20 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>555</v>
+        <v>178</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11744,10 +11743,10 @@
         <v>44</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>44</v>
+        <v>566</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>44</v>
@@ -11758,7 +11757,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11781,20 +11780,18 @@
         <v>44</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>178</v>
+        <v>569</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
@@ -11842,7 +11839,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11860,21 +11857,21 @@
         <v>44</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>44</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11897,17 +11894,15 @@
         <v>44</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>44</v>
@@ -11956,7 +11951,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11974,21 +11969,21 @@
         <v>44</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12011,15 +12006,17 @@
         <v>44</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>44</v>
@@ -12068,7 +12065,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12086,21 +12083,21 @@
         <v>44</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>582</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12123,17 +12120,15 @@
         <v>44</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>555</v>
+        <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -12182,7 +12177,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12200,13 +12195,13 @@
         <v>44</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>587</v>
+        <v>44</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -12214,7 +12209,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12237,13 +12232,13 @@
         <v>44</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>185</v>
+        <v>533</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12294,7 +12289,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12312,13 +12307,13 @@
         <v>44</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -12326,7 +12321,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12349,13 +12344,13 @@
         <v>44</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>534</v>
+        <v>54</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>594</v>
+        <v>129</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>595</v>
+        <v>130</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12406,7 +12401,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>593</v>
+        <v>131</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12418,16 +12413,16 @@
         <v>44</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>596</v>
+        <v>44</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>597</v>
+        <v>132</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>44</v>
@@ -12442,14 +12437,14 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>44</v>
@@ -12461,15 +12456,17 @@
         <v>44</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>44</v>
@@ -12518,19 +12515,19 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>44</v>
@@ -12554,7 +12551,7 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12567,24 +12564,26 @@
         <v>44</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>137</v>
+        <v>402</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12653,7 +12652,7 @@
         <v>44</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
@@ -12668,39 +12667,37 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>97</v>
+        <v>439</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>402</v>
+        <v>602</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>44</v>
       </c>
@@ -12724,13 +12721,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>44</v>
+        <v>605</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12748,39 +12745,39 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>403</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>44</v>
+        <v>595</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>95</v>
+        <v>606</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>44</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12788,7 +12785,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>52</v>
@@ -12803,17 +12800,15 @@
         <v>44</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>440</v>
+        <v>149</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12841,10 +12836,10 @@
         <v>206</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>44</v>
@@ -12862,10 +12857,10 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>52</v>
@@ -12880,21 +12875,21 @@
         <v>44</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12917,13 +12912,13 @@
         <v>44</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>149</v>
+        <v>617</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12950,13 +12945,13 @@
         <v>44</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>612</v>
+        <v>44</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>613</v>
+        <v>44</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>44</v>
@@ -12974,7 +12969,7 @@
         <v>44</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12989,35 +12984,35 @@
         <v>64</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>44</v>
+        <v>620</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>616</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>44</v>
+        <v>623</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>44</v>
@@ -13029,15 +13024,17 @@
         <v>44</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -13086,13 +13083,13 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>44</v>
@@ -13101,13 +13098,13 @@
         <v>64</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>621</v>
+        <v>44</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>614</v>
+        <v>44</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>44</v>
@@ -13118,11 +13115,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>624</v>
+        <v>44</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13141,16 +13138,16 @@
         <v>44</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13200,7 +13197,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13215,137 +13212,23 @@
         <v>64</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>44</v>
+        <v>634</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN98" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN98">
+  <autoFilter ref="A1:AN97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13355,7 +13238,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="671">
   <si>
     <t>Property</t>
   </si>
@@ -2253,7 +2253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2341,77 +2341,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="601">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-07-15T08:52:50+00:00</t>
+    <t>2021-10-15T15:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The nursing profile specialized for medication. Note this profile is based on the FHIR resource MedicationRequest.
+    <t>The nursing profile specialized for medication. Note this profile is based on the FHIR resource MedicationRequest.
 Dosage is expected initially to be given in the corresponding text and optional site fields (as per the NIHDI requirements)</t>
   </si>
   <si>
@@ -426,21 +426,21 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -450,25 +450,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>be-ext-inform-party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -478,9 +460,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -503,10 +482,6 @@
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -522,238 +497,44 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.type</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MedicationRequest.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.statusReason</t>
   </si>
   <si>
     <t>Reason for current status</t>
@@ -814,7 +595,7 @@
     <t>MedicationRequest.category</t>
   </si>
   <si>
-    <t>Type of medication usage - use one code that provide the best detail</t>
+    <t>Type of medication usage</t>
   </si>
   <si>
     <t>Indicates the type of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
@@ -827,10 +608,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -841,33 +618,6 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>NusingMedicationType-highLevelCode</t>
-  </si>
-  <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-category</t>
-  </si>
-  <si>
-    <t>InjectionSpecializationCodes</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-injection</t>
-  </si>
-  <si>
-    <t>PerfusionSpecializationCodes</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-perfusion</t>
-  </si>
-  <si>
-    <t>PercutaneousSpecializationCodes</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-medication-percutaneous</t>
   </si>
   <si>
     <t>MedicationRequest.priority</t>
@@ -975,7 +725,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
@@ -1083,7 +833,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1269,7 +1019,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>If needed to have a common identifier among different prescriptions.</t>
+    <t>Composite request this is part of</t>
   </si>
   <si>
     <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition or prescription.</t>
@@ -1371,7 +1121,35 @@
     <t>MedicationRequest.dosageInstruction.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.modifierExtension</t>
@@ -1880,6 +1658,10 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Time period supply is authorized for</t>
   </si>
   <si>
@@ -1960,6 +1742,10 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Intended dispenser</t>
@@ -2430,7 +2216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2440,7 +2226,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2463,7 +2249,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3403,7 +3189,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3422,15 +3208,17 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -3467,14 +3255,16 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>137</v>
@@ -3498,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -3509,13 +3299,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>139</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3528,22 +3316,26 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3591,7 +3383,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3392,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3612,7 +3404,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3623,11 +3415,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3640,26 +3432,24 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3707,7 +3497,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3719,27 +3509,27 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3747,31 +3537,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3797,35 +3587,37 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3834,28 +3626,26 @@
         <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3876,16 +3666,16 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3911,13 +3701,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -3935,13 +3725,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3950,24 +3740,24 @@
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3975,7 +3765,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3984,21 +3774,23 @@
         <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -4023,13 +3815,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -4047,10 +3839,10 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>87</v>
@@ -4059,19 +3851,19 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -4079,11 +3871,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4102,16 +3894,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4137,31 +3929,31 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4173,19 +3965,19 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4193,7 +3985,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4210,7 +4002,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>88</v>
@@ -4219,17 +4011,13 @@
         <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4253,13 +4041,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -4277,7 +4065,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4292,24 +4080,24 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4326,26 +4114,24 @@
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4369,13 +4155,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4393,7 +4179,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4414,18 +4200,18 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4433,7 +4219,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4448,32 +4234,28 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>79</v>
@@ -4509,7 +4291,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4530,18 +4312,18 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4555,7 +4337,7 @@
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4564,16 +4346,16 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4587,7 +4369,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4599,13 +4381,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4623,10 +4405,10 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
@@ -4638,24 +4420,24 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4663,7 +4445,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -4678,15 +4460,17 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4735,10 +4519,10 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>87</v>
@@ -4750,24 +4534,24 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4787,19 +4571,19 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4849,7 +4633,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4864,24 +4648,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4889,32 +4673,30 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4939,13 +4721,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4963,13 +4745,13 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4978,24 +4760,24 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5009,26 +4791,24 @@
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -5053,13 +4833,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5077,7 +4857,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5092,24 +4872,24 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5117,7 +4897,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5126,23 +4906,21 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5167,13 +4945,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5191,10 +4969,10 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -5206,16 +4984,16 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5001,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5231,13 +5009,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5246,17 +5024,15 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5281,35 +5057,37 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5318,16 +5096,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5335,11 +5113,9 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5357,19 +5133,19 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5395,11 +5171,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5417,13 +5195,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5432,16 +5210,16 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5449,11 +5227,9 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5474,17 +5250,15 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5509,11 +5283,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5531,13 +5307,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5549,13 +5325,13 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5563,11 +5339,9 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5576,7 +5350,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5588,16 +5362,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5623,11 +5397,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5645,7 +5421,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5660,28 +5436,26 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5690,7 +5464,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5702,16 +5476,16 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5737,11 +5511,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5759,7 +5535,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5774,16 +5550,16 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5791,7 +5567,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5802,7 +5578,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5814,13 +5590,13 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5847,13 +5623,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5871,13 +5647,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5886,16 +5662,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5903,7 +5679,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5914,29 +5690,27 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5985,13 +5759,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6006,7 +5780,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6017,7 +5791,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6028,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6040,13 +5814,13 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -6097,13 +5871,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -6112,13 +5886,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6127,9 +5901,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6137,13 +5911,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6152,18 +5926,18 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6187,13 +5961,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6211,10 +5985,10 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -6226,24 +6000,24 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6251,31 +6025,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6301,13 +6075,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6325,10 +6099,10 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6340,24 +6114,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6368,10 +6142,10 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6380,17 +6154,15 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6439,13 +6211,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6454,24 +6226,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6485,7 +6257,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6494,13 +6266,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6551,7 +6323,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6566,16 +6338,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6583,7 +6355,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6594,7 +6366,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6603,18 +6375,20 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6663,13 +6437,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6678,24 +6452,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6703,28 +6477,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6775,7 +6549,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6787,41 +6561,41 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6830,15 +6604,17 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6875,85 +6651,87 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6977,13 +6755,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -7001,28 +6779,28 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>130</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -7033,7 +6811,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7053,19 +6831,21 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7113,7 +6893,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7134,18 +6914,18 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7153,33 +6933,33 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7203,13 +6983,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7227,13 +7007,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7242,24 +7022,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7279,21 +7059,23 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>377</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7317,13 +7099,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7123,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7356,24 +7138,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7384,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7396,13 +7178,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>384</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7453,13 +7235,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7468,24 +7250,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7496,7 +7278,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7508,16 +7290,20 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7565,13 +7351,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7586,7 +7372,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7597,7 +7383,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7608,7 +7394,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7620,15 +7406,17 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7653,13 +7441,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7677,13 +7465,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7692,24 +7480,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7732,17 +7520,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7767,13 +7557,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7791,7 +7581,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7806,24 +7596,24 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7843,21 +7633,21 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7881,13 +7671,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7905,7 +7695,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7926,18 +7716,18 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7948,7 +7738,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7957,19 +7747,23 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>412</v>
+        <v>166</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7993,13 +7787,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -8017,13 +7811,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8032,24 +7826,24 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8063,22 +7857,22 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8129,7 +7923,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8144,24 +7938,24 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8172,7 +7966,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8184,17 +7978,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>425</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8243,28 +8035,28 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8275,18 +8067,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8298,15 +8090,17 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8343,31 +8137,31 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8170,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8387,18 +8181,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8407,21 +8201,21 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>449</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8445,43 +8239,43 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>172</v>
+        <v>454</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8490,53 +8284,53 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>147</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>148</v>
+        <v>461</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8585,19 +8379,19 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8606,18 +8400,18 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>130</v>
+        <v>438</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8640,17 +8434,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8699,7 +8495,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8720,18 +8516,18 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8739,13 +8535,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8754,17 +8550,19 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8813,7 +8611,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8834,18 +8632,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8856,7 +8654,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8868,19 +8666,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>184</v>
+        <v>483</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8905,13 +8703,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8929,13 +8727,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8950,18 +8748,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8984,16 +8782,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9041,7 +8841,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9062,18 +8862,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9093,23 +8893,19 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9157,7 +8953,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9175,10 +8971,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9189,7 +8985,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9209,20 +9005,18 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>474</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>475</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9247,13 +9041,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9271,7 +9065,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>480</v>
+        <v>353</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9283,7 +9077,7 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9292,54 +9086,52 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>481</v>
+        <v>354</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>484</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>485</v>
+        <v>356</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9363,13 +9155,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9387,19 +9179,19 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>490</v>
+        <v>360</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9408,51 +9200,53 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>491</v>
+        <v>354</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>494</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>496</v>
+        <v>142</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9477,13 +9271,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9501,19 +9295,19 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>499</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9522,18 +9316,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9553,23 +9347,21 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>184</v>
+        <v>496</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9593,13 +9385,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9617,7 +9409,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9638,18 +9430,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9660,7 +9452,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9669,16 +9461,16 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>513</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>514</v>
+        <v>351</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>515</v>
+        <v>352</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9729,19 +9521,19 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>516</v>
+        <v>353</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9750,29 +9542,29 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9784,15 +9576,17 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9841,19 +9635,19 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9862,7 +9656,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9873,11 +9667,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9890,24 +9684,26 @@
         <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>363</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>364</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9943,19 +9739,19 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9976,7 +9772,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9987,7 +9783,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10007,21 +9803,19 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>184</v>
+        <v>483</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>523</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10045,13 +9839,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10069,7 +9863,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10090,18 +9884,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10121,23 +9915,19 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10185,7 +9975,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10206,18 +9996,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10237,23 +10027,19 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10301,7 +10087,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10322,18 +10108,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10353,22 +10139,22 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10417,7 +10203,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10435,21 +10221,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10469,23 +10255,21 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10533,7 +10317,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10551,21 +10335,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10585,21 +10369,19 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>565</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10647,7 +10429,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10665,21 +10447,21 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10702,15 +10484,17 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>568</v>
+        <v>517</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10759,7 +10543,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10777,10 +10561,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10791,7 +10575,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10814,13 +10598,13 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>553</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
+        <v>555</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10871,7 +10655,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>166</v>
+        <v>552</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10883,7 +10667,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10892,10 +10676,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>167</v>
+        <v>556</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10903,18 +10687,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10926,17 +10710,15 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>132</v>
+        <v>496</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>169</v>
+        <v>558</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10985,28 +10767,28 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>172</v>
+        <v>557</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>167</v>
+        <v>561</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11017,43 +10799,39 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11101,19 +10879,19 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>437</v>
+        <v>353</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11122,7 +10900,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>130</v>
+        <v>354</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11133,18 +10911,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11156,16 +10934,16 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>568</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>577</v>
+        <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>578</v>
+        <v>356</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>579</v>
+        <v>136</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11215,19 +10993,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>576</v>
+        <v>360</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11236,7 +11014,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>580</v>
+        <v>354</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11247,39 +11025,43 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11327,19 +11109,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11348,7 +11130,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11359,18 +11141,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11382,16 +11164,16 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>566</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>147</v>
+        <v>568</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11417,13 +11199,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11441,75 +11223,71 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>167</v>
+        <v>571</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>435</v>
+        <v>574</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11533,13 +11311,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11557,39 +11335,39 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>437</v>
+        <v>573</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11612,13 +11390,13 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11669,7 +11447,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11684,13 +11462,13 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11701,18 +11479,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11732,7 +11510,9 @@
       <c r="L82" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M82" s="2"/>
+      <c r="M82" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11781,13 +11561,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11802,7 +11582,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11813,7 +11593,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11824,7 +11604,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11836,15 +11616,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11893,13 +11675,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11908,1611 +11690,23 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN97">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13522,7 +11716,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T15:30:39+00:00</t>
+    <t>2021-10-18T11:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:47:25+00:00</t>
+    <t>2021-10-19T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:13:26+00:00</t>
+    <t>2021-10-19T12:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:28:21+00:00</t>
+    <t>2021-10-19T13:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:42:10+00:00</t>
+    <t>2021-10-19T15:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:13:29+00:00</t>
+    <t>2021-10-21T11:58:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
   </si>
   <si>
     <t>The nursing profile specialized for medication. Note this profile is based on the FHIR resource MedicationRequest.
-Dosage is expected initially to be given in the corresponding text and optional site fields (as per the NIHDI requirements)</t>
+Dosage is expected initially to be given in the corresponding text and optional site fields (as per the NIHDI requirements). This MedicationRequest should be used in the basedOn field of the BeReferralPrescriptionNursingMedicationService.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:52:32+00:00</t>
+    <t>2021-11-10T15:45:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The nursing profile specialized for medication. Note this profile is based on the FHIR resource MedicationRequest. Dosage is expected initially to be given in the corresponding text and optional site fields (as per the NIHDI requirements). This MedicationRequest should be used in the basedOn field of the BeReferralPrescriptionNursingMedicationService.</t>
+    <t>The nursing profile specialized for medication. Note this profile is based on the FHIR resource MedicationRequest. Dosage is expected initially to be given in the corresponding text and optional site fields (as per the NIHDI requirements).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T15:45:42+00:00</t>
+    <t>2021-12-01T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T10:36:06+00:00</t>
+    <t>2021-12-01T15:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T15:42:29+00:00</t>
+    <t>2022-01-07T08:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:04:21+00:00</t>
+    <t>2022-05-13T13:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T13:07:05+00:00</t>
+    <t>2022-05-13T13:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T13:15:10+00:00</t>
+    <t>2022-05-13T13:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T13:22:41+00:00</t>
+    <t>2022-06-08T09:22:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T09:22:31+00:00</t>
+    <t>2022-06-08T09:30:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T09:30:37+00:00</t>
+    <t>2022-06-20T13:29:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T13:29:26+00:00</t>
+    <t>2022-06-20T14:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:10:28+00:00</t>
+    <t>2022-06-20T15:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T15:17:03+00:00</t>
+    <t>2022-06-20T16:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T16:04:56+00:00</t>
+    <t>2022-07-04T09:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:43:56+00:00</t>
+    <t>2022-07-04T09:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:45:33+00:00</t>
+    <t>2022-07-04T09:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:46:47+00:00</t>
+    <t>2022-07-04T09:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T09:47:47+00:00</t>
+    <t>2022-07-04T12:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:09:29+00:00</t>
+    <t>2022-07-04T12:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:29:49+00:00</t>
+    <t>2022-07-04T12:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:38:46+00:00</t>
+    <t>2022-07-04T12:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T12:45:37+00:00</t>
+    <t>2022-07-04T13:31:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T13:31:09+00:00</t>
+    <t>2022-07-04T13:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T13:52:58+00:00</t>
+    <t>2022-07-04T16:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1044,34 +1041,20 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient) {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-contained-or-logical-reference}
 </t>
   </si>
   <si>
-    <t>Who or group medication request is for</t>
-  </si>
-  <si>
-    <t>A link to a resource representing the person or set of individuals to whom the medication will be given.</t>
-  </si>
-  <si>
-    <t>The subject on a medication request is mandatory.  For the secondary use case where the actual subject is not provided, there still must be an anonymized subject specified.</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/Patient--(need detail to link to specific patient … Patient.Identification in SCRIPT)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
+    <t>A reference from one resource to another</t>
+  </si>
+  <si>
+    <t>A reference from one resource to another.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>MedicationRequest.encounter</t>
@@ -1152,20 +1135,8 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner) {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-contained-or-logical-reference}
 </t>
-  </si>
-  <si>
-    <t>Who/What requested the Request</t>
-  </si>
-  <si>
-    <t>The individual, organization, or device that initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
   </si>
   <si>
     <t>MedicationRequest.performer</t>
@@ -3609,7 +3580,7 @@
         <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3669,7 +3640,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3681,7 +3652,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3695,7 +3666,7 @@
         <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3717,13 +3688,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3783,7 +3754,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
@@ -3809,7 +3780,7 @@
         <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
@@ -3831,13 +3802,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3897,7 +3868,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>137</v>
@@ -3923,7 +3894,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3945,13 +3916,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4011,7 +3982,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>137</v>
@@ -4037,7 +4008,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -4059,13 +4030,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4125,7 +4096,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>137</v>
@@ -4151,7 +4122,7 @@
         <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4173,13 +4144,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4239,7 +4210,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>137</v>
@@ -4265,7 +4236,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4287,13 +4258,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4353,7 +4324,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>137</v>
@@ -4379,7 +4350,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4401,13 +4372,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4467,7 +4438,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>137</v>
@@ -4493,7 +4464,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4515,13 +4486,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4581,7 +4552,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>137</v>
@@ -4604,11 +4575,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4630,16 +4601,16 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4688,7 +4659,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4720,7 +4691,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4743,16 +4714,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4790,7 +4761,7 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4800,7 +4771,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4815,27 +4786,27 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4857,16 +4828,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4916,7 +4887,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4931,24 +4902,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4971,13 +4942,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5028,28 +4999,28 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -5060,11 +5031,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5086,13 +5057,13 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5133,7 +5104,7 @@
         <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -5142,7 +5113,7 @@
         <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5163,7 +5134,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -5174,7 +5145,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5200,16 +5171,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5234,31 +5205,31 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5250,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5290,7 +5261,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5313,19 +5284,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5350,31 +5321,31 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5395,18 +5366,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5432,65 +5403,65 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="R26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S26" t="s" s="2">
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5511,18 +5482,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5545,16 +5516,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5568,43 +5539,43 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5625,18 +5596,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5659,13 +5630,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5716,7 +5687,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5737,18 +5708,18 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5771,16 +5742,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5830,7 +5801,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5851,18 +5822,18 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5888,13 +5859,13 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5920,14 +5891,14 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5944,7 +5915,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>86</v>
@@ -5959,16 +5930,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5976,7 +5947,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5999,16 +5970,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6034,14 +6005,14 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
@@ -6058,7 +6029,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6073,13 +6044,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6090,7 +6061,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6116,13 +6087,13 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6148,14 +6119,14 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
@@ -6172,7 +6143,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -6187,16 +6158,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6204,7 +6175,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6227,16 +6198,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6262,11 +6233,11 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6284,7 +6255,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6302,13 +6273,13 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6316,7 +6287,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6342,10 +6313,10 @@
         <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6372,14 +6343,14 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6396,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6411,16 +6382,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6428,7 +6399,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6451,16 +6422,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6510,7 +6481,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6531,7 +6502,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6542,7 +6513,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6565,13 +6536,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6622,7 +6593,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6643,7 +6614,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6654,7 +6625,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6677,16 +6648,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6712,14 +6683,14 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6736,7 +6707,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>86</v>
@@ -6751,24 +6722,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6791,16 +6762,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6850,7 +6821,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6865,24 +6836,24 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6905,16 +6876,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6964,7 +6935,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6979,24 +6950,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7019,13 +6990,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7076,7 +7047,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7091,16 +7062,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7108,7 +7079,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7131,13 +7102,13 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7188,7 +7159,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7203,24 +7174,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7243,15 +7214,17 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7300,7 +7273,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7315,16 +7288,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7332,7 +7305,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7355,13 +7328,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7412,7 +7385,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7427,16 +7400,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7444,7 +7417,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7467,16 +7440,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7502,13 +7475,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7526,7 +7499,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7541,13 +7514,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7558,7 +7531,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7581,13 +7554,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7638,7 +7611,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7659,10 +7632,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7670,7 +7643,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7693,16 +7666,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7728,13 +7701,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7752,7 +7725,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7767,24 +7740,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7807,16 +7780,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7866,7 +7839,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7881,16 +7854,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7898,7 +7871,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7921,13 +7894,13 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7978,7 +7951,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7993,13 +7966,13 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -8010,7 +7983,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8036,10 +8009,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8090,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8111,7 +8084,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8122,7 +8095,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8145,13 +8118,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8202,7 +8175,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8217,13 +8190,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8234,7 +8207,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8257,17 +8230,17 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8316,7 +8289,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8331,13 +8304,13 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8348,7 +8321,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8371,16 +8344,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8406,13 +8379,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8430,7 +8403,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8451,7 +8424,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8462,7 +8435,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8485,13 +8458,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8542,7 +8515,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8557,13 +8530,13 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8574,7 +8547,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8597,13 +8570,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8654,7 +8627,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8669,13 +8642,13 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8686,7 +8659,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8709,16 +8682,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8768,7 +8741,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8783,13 +8756,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8800,7 +8773,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8823,13 +8796,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8880,28 +8853,28 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8912,11 +8885,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8938,13 +8911,13 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8985,7 +8958,7 @@
         <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
@@ -8994,7 +8967,7 @@
         <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9015,7 +8988,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9026,11 +8999,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9052,16 +9025,16 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9110,7 +9083,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9142,7 +9115,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9165,17 +9138,17 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9224,7 +9197,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9245,18 +9218,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9279,17 +9252,17 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9338,7 +9311,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9359,18 +9332,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9393,19 +9366,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9430,13 +9403,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9454,7 +9427,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9475,18 +9448,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9509,13 +9482,13 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9566,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9587,18 +9560,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9621,19 +9594,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9682,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9703,7 +9676,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9714,7 +9687,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9737,16 +9710,16 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9772,13 +9745,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9796,7 +9769,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9817,18 +9790,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9851,19 +9824,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9888,13 +9861,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9912,7 +9885,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9933,18 +9906,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9967,17 +9940,17 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -10002,13 +9975,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10026,7 +9999,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10047,18 +10020,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10081,19 +10054,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10118,13 +10091,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10142,7 +10115,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10163,18 +10136,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10197,13 +10170,13 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10254,7 +10227,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10281,12 +10254,12 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10309,13 +10282,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10366,28 +10339,28 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10398,11 +10371,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10424,13 +10397,13 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10471,7 +10444,7 @@
         <v>134</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
@@ -10480,7 +10453,7 @@
         <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10501,7 +10474,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10512,7 +10485,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10535,17 +10508,17 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10570,13 +10543,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10594,7 +10567,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10621,12 +10594,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10649,19 +10622,19 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10710,7 +10683,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10731,18 +10704,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10765,19 +10738,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10826,7 +10799,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10847,18 +10820,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10881,19 +10854,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10942,7 +10915,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10963,18 +10936,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10997,19 +10970,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11058,7 +11031,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11079,7 +11052,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11090,7 +11063,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11113,17 +11086,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11172,7 +11145,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11193,7 +11166,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11204,7 +11177,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11227,13 +11200,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11284,7 +11257,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11302,10 +11275,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11316,7 +11289,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11339,13 +11312,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11396,28 +11369,28 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11428,11 +11401,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11454,13 +11427,13 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11510,7 +11483,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11531,7 +11504,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11542,11 +11515,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11568,16 +11541,16 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11626,7 +11599,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11658,7 +11631,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11681,16 +11654,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="L81" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11740,7 +11713,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11761,7 +11734,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11772,7 +11745,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11795,13 +11768,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11852,28 +11825,28 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11884,11 +11857,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11910,13 +11883,13 @@
         <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11966,7 +11939,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11987,7 +11960,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11998,11 +11971,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12024,16 +11997,16 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12082,7 +12055,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12114,7 +12087,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12137,13 +12110,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12194,7 +12167,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12215,7 +12188,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12226,7 +12199,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12249,13 +12222,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12306,7 +12279,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12327,7 +12300,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12338,7 +12311,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12361,13 +12334,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12418,7 +12391,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12439,7 +12412,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12450,7 +12423,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12473,19 +12446,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12534,7 +12507,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12552,10 +12525,10 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12566,7 +12539,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12589,16 +12562,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12648,7 +12621,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12666,21 +12639,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12703,13 +12676,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12760,7 +12733,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12778,21 +12751,21 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12815,16 +12788,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12874,7 +12847,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12892,10 +12865,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12906,7 +12879,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12929,13 +12902,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12986,7 +12959,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13007,10 +12980,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13018,7 +12991,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13041,13 +13014,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13098,7 +13071,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13116,10 +13089,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13130,7 +13103,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13153,13 +13126,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13210,28 +13183,28 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL94" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13242,11 +13215,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13268,13 +13241,13 @@
         <v>131</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="M95" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13324,7 +13297,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13345,7 +13318,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13356,11 +13329,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13382,16 +13355,16 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13440,7 +13413,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13472,7 +13445,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13495,16 +13468,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13530,13 +13503,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13554,7 +13527,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>86</v>
@@ -13572,21 +13545,21 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13609,13 +13582,13 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13642,13 +13615,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13666,7 +13639,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13684,21 +13657,21 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13721,13 +13694,13 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13778,7 +13751,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13793,13 +13766,13 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13810,11 +13783,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13833,16 +13806,16 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13892,7 +13865,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13913,7 +13886,7 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13924,7 +13897,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13947,16 +13920,16 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14006,7 +13979,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14021,13 +13994,13 @@
         <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="686">
   <si>
     <t>Property</t>
   </si>
@@ -485,6 +485,10 @@
     <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}be-inv-validityPeriod-granularity:validityPeriod dates SHALL be of format YYYY-MM-DD {(valuePeriod.start.empty() or valuePeriod.start.toString().length()=10) and (valuePeriod.end.empty() or valuePeriod.end.toString().length()=10)}</t>
+  </si>
+  <si>
     <t>latest</t>
   </si>
   <si>
@@ -498,6 +502,10 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}be-inv-latestEndDate-granularity:latestEndDate dates SHALL be of format YYYY-MM-DD {valueDateTime.empty() or valueDateTime.toString().length()=10}</t>
+  </si>
+  <si>
     <t>latestDraft</t>
   </si>
   <si>
@@ -509,6 +517,10 @@
   </si>
   <si>
     <t>Request must leave draft status before</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}be-inv-latestDraftDate-granularity:latestDraftDate dates SHALL be of format YYYY-MM-DD {valueDateTime.empty() or valueDateTime.toString().length()=10}</t>
   </si>
   <si>
     <t>performertasks</t>
@@ -3871,7 +3883,7 @@
         <v>141</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3894,7 +3906,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3916,13 +3928,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3985,7 +3997,7 @@
         <v>141</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -4008,7 +4020,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -4030,13 +4042,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4099,7 +4111,7 @@
         <v>141</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -4122,7 +4134,7 @@
         <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4144,13 +4156,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4236,7 +4248,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4258,13 +4270,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4350,7 +4362,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4372,13 +4384,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4464,7 +4476,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4486,13 +4498,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4575,11 +4587,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4601,16 +4613,16 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4659,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4691,7 +4703,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4714,16 +4726,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4761,7 +4773,7 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4771,7 +4783,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4786,27 +4798,27 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4828,16 +4840,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4887,7 +4899,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4902,24 +4914,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4942,13 +4954,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4999,7 +5011,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5020,7 +5032,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -5031,11 +5043,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5057,13 +5069,13 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5104,7 +5116,7 @@
         <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -5113,7 +5125,7 @@
         <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5134,7 +5146,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -5145,7 +5157,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5171,16 +5183,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5205,13 +5217,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5229,7 +5241,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5250,7 +5262,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5261,7 +5273,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5284,19 +5296,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5321,13 +5333,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5345,7 +5357,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5366,18 +5378,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5403,29 +5415,29 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5461,7 +5473,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5482,18 +5494,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5516,16 +5528,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5539,7 +5551,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5575,7 +5587,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5596,18 +5608,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5630,13 +5642,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5687,7 +5699,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5708,18 +5720,18 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5742,16 +5754,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5801,7 +5813,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5822,18 +5834,18 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5859,13 +5871,13 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5891,13 +5903,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5915,7 +5927,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>86</v>
@@ -5930,16 +5942,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5947,7 +5959,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5970,16 +5982,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6005,13 +6017,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6029,7 +6041,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6044,13 +6056,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6061,7 +6073,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6087,13 +6099,13 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6119,13 +6131,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6143,7 +6155,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -6158,16 +6170,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6175,7 +6187,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6198,16 +6210,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6233,11 +6245,11 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6255,7 +6267,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6273,13 +6285,13 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6287,7 +6299,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6313,10 +6325,10 @@
         <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6343,31 +6355,31 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6382,16 +6394,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6399,7 +6411,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6422,16 +6434,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6481,7 +6493,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6502,7 +6514,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6513,7 +6525,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6536,13 +6548,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6593,7 +6605,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6614,7 +6626,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6625,7 +6637,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6648,16 +6660,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6683,13 +6695,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6707,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>86</v>
@@ -6722,24 +6734,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6762,16 +6774,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6821,7 +6833,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6842,7 +6854,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6853,7 +6865,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6876,16 +6888,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6935,7 +6947,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6950,24 +6962,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6990,13 +7002,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7047,7 +7059,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7062,24 +7074,24 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7087,13 +7099,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7102,13 +7114,13 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7159,7 +7171,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7174,24 +7186,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7214,16 +7226,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7273,7 +7285,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7294,7 +7306,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7305,7 +7317,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7328,13 +7340,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7385,7 +7397,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7400,16 +7412,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7417,7 +7429,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7440,16 +7452,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7475,13 +7487,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7499,7 +7511,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7514,13 +7526,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7531,7 +7543,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7554,13 +7566,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7611,7 +7623,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7632,10 +7644,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7643,7 +7655,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7666,16 +7678,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7701,13 +7713,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7725,7 +7737,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7740,24 +7752,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7780,16 +7792,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7839,7 +7851,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7854,16 +7866,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7871,7 +7883,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7894,13 +7906,13 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7951,7 +7963,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7966,13 +7978,13 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7983,7 +7995,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8009,10 +8021,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8063,7 +8075,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8084,7 +8096,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8095,7 +8107,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8118,13 +8130,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8175,7 +8187,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8190,13 +8202,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8207,7 +8219,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8230,17 +8242,17 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8289,7 +8301,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8304,13 +8316,13 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8321,7 +8333,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8344,16 +8356,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8379,13 +8391,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8403,7 +8415,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8424,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8435,7 +8447,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8458,13 +8470,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8515,7 +8527,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8530,13 +8542,13 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8547,7 +8559,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8570,13 +8582,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8627,7 +8639,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8642,13 +8654,13 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8659,7 +8671,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8682,16 +8694,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8741,7 +8753,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8756,13 +8768,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8773,7 +8785,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8796,13 +8808,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8853,7 +8865,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8874,7 +8886,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8885,11 +8897,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8911,13 +8923,13 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8958,7 +8970,7 @@
         <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
@@ -8967,7 +8979,7 @@
         <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8988,7 +9000,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8999,11 +9011,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9025,16 +9037,16 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9083,7 +9095,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9115,7 +9127,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9138,17 +9150,17 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9197,7 +9209,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9218,18 +9230,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9252,17 +9264,17 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9311,7 +9323,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9332,18 +9344,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9366,19 +9378,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9403,13 +9415,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9427,7 +9439,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9448,18 +9460,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9482,13 +9494,13 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9539,7 +9551,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9560,18 +9572,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9594,19 +9606,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9655,7 +9667,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9676,7 +9688,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9687,7 +9699,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9710,16 +9722,16 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9745,13 +9757,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9769,7 +9781,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9790,18 +9802,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9824,19 +9836,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9861,13 +9873,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9885,7 +9897,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9906,18 +9918,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9940,17 +9952,17 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9975,13 +9987,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9999,7 +10011,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10020,18 +10032,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10054,19 +10066,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10091,13 +10103,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10115,7 +10127,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10136,18 +10148,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10170,13 +10182,13 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10227,7 +10239,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10254,12 +10266,12 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10282,13 +10294,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10339,7 +10351,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10360,7 +10372,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10371,11 +10383,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10397,13 +10409,13 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10444,7 +10456,7 @@
         <v>134</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
@@ -10453,7 +10465,7 @@
         <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10474,7 +10486,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10485,7 +10497,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10508,17 +10520,17 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10543,13 +10555,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10567,7 +10579,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10594,12 +10606,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10622,19 +10634,19 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10683,7 +10695,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10704,18 +10716,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10738,19 +10750,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10799,7 +10811,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10820,18 +10832,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10854,19 +10866,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10915,7 +10927,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10936,18 +10948,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10970,19 +10982,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11031,7 +11043,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11052,7 +11064,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11063,7 +11075,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11086,17 +11098,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11157,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11166,7 +11178,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11177,7 +11189,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11200,13 +11212,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11257,7 +11269,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11275,10 +11287,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11289,7 +11301,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11312,13 +11324,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11369,7 +11381,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11390,7 +11402,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11401,11 +11413,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11427,13 +11439,13 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11483,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11504,7 +11516,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11515,11 +11527,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11541,16 +11553,16 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11599,7 +11611,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11631,7 +11643,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11654,16 +11666,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11713,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11734,7 +11746,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11745,7 +11757,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11768,13 +11780,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11825,7 +11837,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11846,7 +11858,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11857,11 +11869,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11883,13 +11895,13 @@
         <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11939,7 +11951,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11960,7 +11972,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11971,11 +11983,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11997,16 +12009,16 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12055,7 +12067,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12087,7 +12099,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12110,13 +12122,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12167,7 +12179,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12188,7 +12200,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12199,7 +12211,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12222,13 +12234,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12279,7 +12291,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12300,7 +12312,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12311,7 +12323,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12334,13 +12346,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12391,7 +12403,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12412,7 +12424,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12423,7 +12435,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12446,19 +12458,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12507,7 +12519,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12525,10 +12537,10 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12539,7 +12551,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12562,16 +12574,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12621,7 +12633,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12639,21 +12651,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12676,13 +12688,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12733,7 +12745,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12751,21 +12763,21 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12788,16 +12800,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12847,7 +12859,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12865,10 +12877,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12879,7 +12891,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12902,13 +12914,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12959,7 +12971,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12980,10 +12992,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12991,7 +13003,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13014,13 +13026,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13071,7 +13083,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13089,10 +13101,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13103,7 +13115,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13126,13 +13138,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13183,7 +13195,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13204,7 +13216,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13215,11 +13227,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13241,13 +13253,13 @@
         <v>131</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13297,7 +13309,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13318,7 +13330,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13329,11 +13341,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13355,16 +13367,16 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13413,7 +13425,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13445,7 +13457,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13468,16 +13480,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13503,13 +13515,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13527,7 +13539,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>86</v>
@@ -13545,21 +13557,21 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13582,13 +13594,13 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13615,31 +13627,31 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13657,21 +13669,21 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13694,13 +13706,13 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13751,7 +13763,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13766,13 +13778,13 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13783,11 +13795,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13806,16 +13818,16 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13865,7 +13877,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13886,7 +13898,7 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13897,7 +13909,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13920,16 +13932,16 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13979,7 +13991,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13994,13 +14006,13 @@
         <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -485,10 +485,6 @@
     <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}be-inv-validityPeriod-granularity:validityPeriod dates SHALL be of format YYYY-MM-DD {(valuePeriod.start.empty() or valuePeriod.start.toString().length()=10) and (valuePeriod.end.empty() or valuePeriod.end.toString().length()=10)}</t>
-  </si>
-  <si>
     <t>latest</t>
   </si>
   <si>
@@ -502,10 +498,6 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}be-inv-latestEndDate-granularity:latestEndDate dates SHALL be of format YYYY-MM-DD {valueDateTime.empty() or valueDateTime.toString().length()=10}</t>
-  </si>
-  <si>
     <t>latestDraft</t>
   </si>
   <si>
@@ -517,10 +509,6 @@
   </si>
   <si>
     <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}be-inv-latestDraftDate-granularity:latestDraftDate dates SHALL be of format YYYY-MM-DD {valueDateTime.empty() or valueDateTime.toString().length()=10}</t>
   </si>
   <si>
     <t>performertasks</t>
@@ -1119,29 +1107,18 @@
     <t>MedicationRequest.authoredOn</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-year-month-day}
 </t>
   </si>
   <si>
-    <t>When request was initially authored</t>
-  </si>
-  <si>
-    <t>The date (and perhaps time) when the prescription was initially written or authored on.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/WrittenDate</t>
-  </si>
-  <si>
-    <t>author.time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>RXE-32-Original Order Date/Time / ORC-9-Date/Time of Transaction</t>
+    <t>Primitive Type dateTime</t>
+  </si>
+  <si>
+    <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
   </si>
   <si>
     <t>MedicationRequest.requester</t>
@@ -3883,7 +3860,7 @@
         <v>141</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3906,7 +3883,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3928,13 +3905,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3997,7 +3974,7 @@
         <v>141</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -4020,7 +3997,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -4042,13 +4019,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4111,7 +4088,7 @@
         <v>141</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -4134,7 +4111,7 @@
         <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4156,13 +4133,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4248,7 +4225,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4270,13 +4247,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4362,7 +4339,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4384,13 +4361,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4476,7 +4453,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4498,13 +4475,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4587,11 +4564,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4613,16 +4590,16 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4671,7 +4648,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4703,7 +4680,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4726,16 +4703,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4773,7 +4750,7 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4783,7 +4760,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4798,27 +4775,27 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4840,16 +4817,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4899,7 +4876,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4914,24 +4891,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4954,13 +4931,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5011,7 +4988,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5032,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -5043,11 +5020,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5069,13 +5046,13 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5116,7 +5093,7 @@
         <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -5125,7 +5102,7 @@
         <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5146,7 +5123,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -5157,7 +5134,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5183,16 +5160,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5217,31 +5194,31 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5262,7 +5239,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5273,7 +5250,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5296,19 +5273,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5333,31 +5310,31 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5378,18 +5355,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5415,29 +5392,29 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5473,7 +5450,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5494,18 +5471,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5528,16 +5505,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5551,7 +5528,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5587,7 +5564,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5608,18 +5585,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5642,13 +5619,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5699,7 +5676,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5720,18 +5697,18 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5754,16 +5731,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5813,7 +5790,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5834,18 +5811,18 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5871,13 +5848,13 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5903,13 +5880,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5927,7 +5904,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>86</v>
@@ -5942,16 +5919,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5959,7 +5936,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5982,16 +5959,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6017,13 +5994,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6041,7 +6018,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6056,13 +6033,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6073,7 +6050,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6099,13 +6076,13 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6131,13 +6108,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6155,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -6170,16 +6147,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6187,7 +6164,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6210,16 +6187,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6245,11 +6222,11 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6267,7 +6244,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6285,13 +6262,13 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6299,7 +6276,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6325,10 +6302,10 @@
         <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6355,13 +6332,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6379,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6394,16 +6371,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6388,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6434,16 +6411,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6493,7 +6470,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6514,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6525,7 +6502,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6548,13 +6525,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6605,7 +6582,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6626,7 +6603,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6637,7 +6614,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6660,16 +6637,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6695,13 +6672,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6719,7 +6696,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>86</v>
@@ -6734,24 +6711,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6774,16 +6751,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6833,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6854,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6865,7 +6842,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6888,16 +6865,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6947,7 +6924,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6962,24 +6939,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7002,13 +6979,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7059,7 +7036,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7074,16 +7051,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7091,7 +7068,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7111,16 +7088,16 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7171,7 +7148,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7183,27 +7160,27 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7226,16 +7203,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7285,7 +7262,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7306,7 +7283,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7317,7 +7294,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7340,13 +7317,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7397,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7412,16 +7389,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7429,7 +7406,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7452,16 +7429,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7487,13 +7464,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7511,7 +7488,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7526,13 +7503,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7543,7 +7520,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7566,13 +7543,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7623,7 +7600,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7644,10 +7621,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7655,7 +7632,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7678,16 +7655,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7713,13 +7690,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7737,7 +7714,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7752,24 +7729,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7792,16 +7769,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7851,7 +7828,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7866,16 +7843,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7883,7 +7860,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7906,13 +7883,13 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7963,7 +7940,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7978,13 +7955,13 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7995,7 +7972,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8021,10 +7998,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8075,7 +8052,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8096,7 +8073,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8107,7 +8084,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8130,13 +8107,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8187,7 +8164,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8202,13 +8179,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8219,7 +8196,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8242,17 +8219,17 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8301,7 +8278,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8316,13 +8293,13 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8333,7 +8310,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8356,16 +8333,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8391,13 +8368,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8415,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8436,7 +8413,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8447,7 +8424,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8470,13 +8447,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8527,7 +8504,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8542,13 +8519,13 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8559,7 +8536,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8582,13 +8559,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8639,7 +8616,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8654,13 +8631,13 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8671,7 +8648,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8694,16 +8671,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8753,7 +8730,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8768,13 +8745,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8785,7 +8762,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8808,13 +8785,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8865,7 +8842,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8886,7 +8863,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8897,11 +8874,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8923,13 +8900,13 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8970,7 +8947,7 @@
         <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
@@ -8979,7 +8956,7 @@
         <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9000,7 +8977,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9011,11 +8988,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9037,16 +9014,16 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9095,7 +9072,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9127,7 +9104,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9150,17 +9127,17 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9209,7 +9186,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9230,18 +9207,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9264,17 +9241,17 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9323,7 +9300,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9344,18 +9321,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9378,19 +9355,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9415,13 +9392,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9439,7 +9416,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9460,18 +9437,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9494,13 +9471,13 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9551,7 +9528,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9572,18 +9549,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9606,19 +9583,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9667,7 +9644,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9688,7 +9665,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9699,7 +9676,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9722,16 +9699,16 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9757,13 +9734,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9781,7 +9758,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9802,18 +9779,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9836,19 +9813,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9873,13 +9850,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9897,7 +9874,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9918,18 +9895,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9952,17 +9929,17 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9987,13 +9964,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10011,7 +9988,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10032,18 +10009,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10066,19 +10043,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10103,13 +10080,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10127,7 +10104,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10148,18 +10125,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10182,13 +10159,13 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10239,7 +10216,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10266,12 +10243,12 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10294,13 +10271,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10351,7 +10328,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10372,7 +10349,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10383,11 +10360,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10409,13 +10386,13 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10456,7 +10433,7 @@
         <v>134</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
@@ -10465,7 +10442,7 @@
         <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10486,7 +10463,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10497,7 +10474,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10520,17 +10497,17 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10555,13 +10532,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10579,7 +10556,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10606,12 +10583,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10634,19 +10611,19 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10695,7 +10672,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10716,18 +10693,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10750,19 +10727,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10811,7 +10788,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10832,18 +10809,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10866,19 +10843,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10927,7 +10904,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10948,18 +10925,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10982,19 +10959,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11043,7 +11020,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11064,7 +11041,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11075,7 +11052,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11098,17 +11075,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11157,7 +11134,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11178,7 +11155,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11189,7 +11166,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11212,13 +11189,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11269,7 +11246,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11287,10 +11264,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11301,7 +11278,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11324,13 +11301,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11381,7 +11358,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11402,7 +11379,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11413,11 +11390,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11439,13 +11416,13 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11495,7 +11472,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11516,7 +11493,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11527,11 +11504,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11553,16 +11530,16 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11611,7 +11588,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11643,7 +11620,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11666,16 +11643,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11725,7 +11702,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11746,7 +11723,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11757,7 +11734,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11780,13 +11757,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11837,7 +11814,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11858,7 +11835,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11869,11 +11846,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11895,13 +11872,13 @@
         <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11951,7 +11928,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11972,7 +11949,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11983,11 +11960,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12009,16 +11986,16 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12067,7 +12044,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12099,7 +12076,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12122,13 +12099,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12179,7 +12156,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12200,7 +12177,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12211,7 +12188,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12234,13 +12211,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12291,7 +12268,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12312,7 +12289,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12323,7 +12300,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12346,13 +12323,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12403,7 +12380,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12424,7 +12401,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12435,7 +12412,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12458,19 +12435,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12519,7 +12496,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12537,10 +12514,10 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12551,7 +12528,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12574,16 +12551,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12633,7 +12610,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12651,21 +12628,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12688,13 +12665,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12745,7 +12722,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12763,21 +12740,21 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12800,16 +12777,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12859,7 +12836,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12877,10 +12854,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12891,7 +12868,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12914,13 +12891,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12971,7 +12948,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12992,10 +12969,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13003,7 +12980,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13026,13 +13003,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13083,7 +13060,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13101,10 +13078,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13115,7 +13092,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13138,13 +13115,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13195,7 +13172,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13216,7 +13193,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13227,11 +13204,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13253,13 +13230,13 @@
         <v>131</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13309,7 +13286,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13330,7 +13307,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13341,11 +13318,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13367,16 +13344,16 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13425,7 +13402,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13457,7 +13434,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13480,16 +13457,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13515,13 +13492,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13539,7 +13516,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>86</v>
@@ -13557,21 +13534,21 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13594,13 +13571,13 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13627,13 +13604,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13651,7 +13628,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13669,21 +13646,21 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13706,13 +13683,13 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13763,7 +13740,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13778,13 +13755,13 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13795,11 +13772,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13818,16 +13795,16 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13877,7 +13854,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13898,7 +13875,7 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13909,7 +13886,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13932,16 +13909,16 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13991,7 +13968,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14006,13 +13983,13 @@
         <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -896,10 +896,7 @@
 This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
   </si>
   <si>
-    <t>The kind of medication order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-request-intent</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -2492,7 +2489,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.0859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -6110,11 +6107,9 @@
       <c r="W32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="X32" s="2"/>
+      <c r="Y32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6147,16 +6142,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6164,7 +6159,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6190,13 +6185,13 @@
         <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6226,7 +6221,7 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6244,7 +6239,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6262,13 +6257,13 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6276,7 +6271,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6302,10 +6297,10 @@
         <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6335,11 +6330,11 @@
         <v>209</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6356,7 +6351,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6371,16 +6366,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6388,7 +6383,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6411,16 +6406,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6470,7 +6465,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6491,7 +6486,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6502,7 +6497,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6525,13 +6520,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6582,7 +6577,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6603,7 +6598,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6614,7 +6609,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6637,16 +6632,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6675,11 +6670,11 @@
         <v>272</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6696,7 +6691,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>86</v>
@@ -6711,24 +6706,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6751,16 +6746,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6810,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6831,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6842,7 +6837,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6865,16 +6860,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6924,7 +6919,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6939,24 +6934,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6979,13 +6974,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7036,7 +7031,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7051,16 +7046,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7068,7 +7063,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7091,13 +7086,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7148,7 +7143,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7160,7 +7155,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -7180,7 +7175,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7203,16 +7198,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7262,7 +7257,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7283,7 +7278,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7294,7 +7289,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7317,13 +7312,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7374,7 +7369,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7389,16 +7384,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7406,7 +7401,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7432,13 +7427,13 @@
         <v>215</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7467,11 +7462,11 @@
         <v>272</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7488,7 +7483,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7503,13 +7498,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7520,7 +7515,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7543,13 +7538,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7600,7 +7595,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7621,10 +7616,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7632,7 +7627,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7658,13 +7653,13 @@
         <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7693,11 +7688,11 @@
         <v>272</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7714,7 +7709,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7729,24 +7724,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7769,16 +7764,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7828,7 +7823,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7843,16 +7838,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7855,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7883,13 +7878,13 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7940,7 +7935,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7955,13 +7950,13 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7972,7 +7967,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7998,10 +7993,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8052,7 +8047,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8073,7 +8068,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8084,7 +8079,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8107,13 +8102,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8164,7 +8159,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8179,13 +8174,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8196,7 +8191,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8222,14 +8217,14 @@
         <v>181</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8278,7 +8273,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8293,13 +8288,13 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8310,7 +8305,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8336,13 +8331,13 @@
         <v>215</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8371,11 +8366,11 @@
         <v>272</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8392,7 +8387,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8413,7 +8408,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8424,7 +8419,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8447,13 +8442,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8504,7 +8499,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8519,13 +8514,13 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8536,7 +8531,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8559,13 +8554,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8616,7 +8611,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8631,13 +8626,13 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8648,7 +8643,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8671,16 +8666,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8730,7 +8725,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8745,13 +8740,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8762,7 +8757,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8874,7 +8869,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8988,11 +8983,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9014,10 +9009,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>177</v>
@@ -9072,7 +9067,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9104,7 +9099,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9127,17 +9122,17 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9186,7 +9181,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9207,18 +9202,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9244,14 +9239,14 @@
         <v>194</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9300,7 +9295,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9321,18 +9316,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9358,16 +9353,16 @@
         <v>215</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9395,28 +9390,28 @@
         <v>272</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9437,18 +9432,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9474,10 +9469,10 @@
         <v>194</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9528,7 +9523,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9549,18 +9544,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9583,19 +9578,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9644,7 +9639,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9665,7 +9660,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9676,7 +9671,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9699,16 +9694,16 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9737,28 +9732,28 @@
         <v>272</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9779,18 +9774,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9816,16 +9811,16 @@
         <v>215</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9853,28 +9848,28 @@
         <v>272</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9895,18 +9890,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9932,14 +9927,14 @@
         <v>215</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9967,28 +9962,28 @@
         <v>272</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10009,18 +10004,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10046,16 +10041,16 @@
         <v>215</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10083,28 +10078,28 @@
         <v>272</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10125,18 +10120,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10159,13 +10154,13 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10216,7 +10211,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10243,12 +10238,12 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10360,7 +10355,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10474,7 +10469,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10500,14 +10495,14 @@
         <v>215</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10535,28 +10530,28 @@
         <v>272</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10583,12 +10578,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10611,19 +10606,19 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10672,7 +10667,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10693,18 +10688,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10727,19 +10722,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10788,7 +10783,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10809,18 +10804,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10843,19 +10838,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10904,7 +10899,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10925,18 +10920,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10959,19 +10954,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11020,7 +11015,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11041,7 +11036,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11052,7 +11047,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11075,17 +11070,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11134,7 +11129,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11155,7 +11150,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11166,7 +11161,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11189,13 +11184,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11246,7 +11241,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11264,10 +11259,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11278,7 +11273,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11390,7 +11385,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11504,11 +11499,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11530,10 +11525,10 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>177</v>
@@ -11588,7 +11583,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11620,7 +11615,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11643,16 +11638,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11702,7 +11697,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11723,7 +11718,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11734,7 +11729,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11846,7 +11841,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11960,11 +11955,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11986,10 +11981,10 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>177</v>
@@ -12044,7 +12039,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12076,7 +12071,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12099,13 +12094,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12156,7 +12151,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12177,7 +12172,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12188,7 +12183,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12211,13 +12206,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12268,7 +12263,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12289,7 +12284,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12300,7 +12295,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12323,13 +12318,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12380,7 +12375,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12401,7 +12396,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12412,7 +12407,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12438,16 +12433,16 @@
         <v>244</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12496,7 +12491,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12514,10 +12509,10 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12528,7 +12523,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12551,16 +12546,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12610,7 +12605,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12628,21 +12623,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>618</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12665,13 +12660,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12722,7 +12717,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12740,21 +12735,21 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>624</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12777,16 +12772,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12836,7 +12831,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12854,10 +12849,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12868,7 +12863,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12894,10 +12889,10 @@
         <v>251</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12948,7 +12943,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12969,10 +12964,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12980,7 +12975,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13003,13 +12998,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13060,7 +13055,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13078,10 +13073,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13092,7 +13087,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13204,7 +13199,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13318,11 +13313,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13344,10 +13339,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>177</v>
@@ -13402,7 +13397,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13434,7 +13429,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13457,16 +13452,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13495,11 +13490,11 @@
         <v>272</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13516,7 +13511,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>86</v>
@@ -13534,21 +13529,21 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>650</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13574,10 +13569,10 @@
         <v>215</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13607,11 +13602,11 @@
         <v>272</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>655</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13628,7 +13623,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13646,21 +13641,21 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>658</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13683,13 +13678,13 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13740,7 +13735,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13755,13 +13750,13 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13772,11 +13767,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13795,16 +13790,16 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13854,7 +13849,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13875,7 +13870,7 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13886,7 +13881,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13909,16 +13904,16 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13968,7 +13963,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13983,13 +13978,13 @@
         <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -3566,7 +3569,7 @@
         <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3626,7 +3629,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3638,7 +3641,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3652,7 +3655,7 @@
         <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3674,13 +3677,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3740,7 +3743,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
@@ -3766,7 +3769,7 @@
         <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
@@ -3788,13 +3791,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3854,7 +3857,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>137</v>
@@ -3880,7 +3883,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3902,13 +3905,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3968,7 +3971,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>137</v>
@@ -3994,7 +3997,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -4016,13 +4019,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4082,7 +4085,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>137</v>
@@ -4108,7 +4111,7 @@
         <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4130,13 +4133,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4196,7 +4199,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>137</v>
@@ -4222,7 +4225,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4244,13 +4247,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4310,7 +4313,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>137</v>
@@ -4336,7 +4339,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4358,13 +4361,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4424,7 +4427,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>137</v>
@@ -4450,7 +4453,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4472,13 +4475,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4538,7 +4541,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>137</v>
@@ -4561,11 +4564,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4587,16 +4590,16 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4645,7 +4648,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4700,16 +4703,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4747,7 +4750,7 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4757,7 +4760,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4772,27 +4775,27 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4814,16 +4817,16 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4873,7 +4876,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4888,24 +4891,24 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4928,13 +4931,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4985,7 +4988,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5006,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -5017,11 +5020,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5043,13 +5046,13 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5090,7 +5093,7 @@
         <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -5099,7 +5102,7 @@
         <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5120,7 +5123,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -5131,7 +5134,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5157,16 +5160,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5191,13 +5194,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5215,7 +5218,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5236,7 +5239,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5270,19 +5273,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5307,13 +5310,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5331,7 +5334,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5352,18 +5355,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5389,29 +5392,29 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5447,7 +5450,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5468,18 +5471,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5502,16 +5505,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5525,7 +5528,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5561,7 +5564,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5582,18 +5585,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5616,13 +5619,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5673,7 +5676,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5694,18 +5697,18 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5728,16 +5731,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5787,7 +5790,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5808,18 +5811,18 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5845,13 +5848,13 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5877,13 +5880,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5904,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>86</v>
@@ -5916,16 +5919,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5933,7 +5936,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5956,16 +5959,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5991,13 +5994,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6015,7 +6018,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6030,13 +6033,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6073,13 +6076,13 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6105,11 +6108,11 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6127,7 +6130,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>86</v>
@@ -6142,16 +6145,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6182,16 +6185,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6217,11 +6220,11 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6239,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6257,13 +6260,13 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6271,7 +6274,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6297,10 +6300,10 @@
         <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6327,13 +6330,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6351,7 +6354,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6366,16 +6369,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6383,7 +6386,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6406,16 +6409,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6465,7 +6468,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6486,7 +6489,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6497,7 +6500,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6520,13 +6523,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6577,7 +6580,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6598,7 +6601,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6609,7 +6612,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6632,16 +6635,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6667,13 +6670,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6691,7 +6694,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>86</v>
@@ -6706,24 +6709,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6746,16 +6749,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6805,7 +6808,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -6826,7 +6829,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6837,7 +6840,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6860,16 +6863,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6919,7 +6922,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6934,24 +6937,24 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6974,13 +6977,13 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7031,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7046,16 +7049,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7066,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7086,13 +7089,13 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7143,7 +7146,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7155,7 +7158,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -7175,7 +7178,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7198,16 +7201,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7257,7 +7260,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7278,7 +7281,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7289,7 +7292,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7312,13 +7315,13 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7369,7 +7372,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7384,16 +7387,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7401,7 +7404,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7424,16 +7427,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7459,13 +7462,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7483,7 +7486,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7498,13 +7501,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7515,7 +7518,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7538,13 +7541,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7595,7 +7598,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7616,10 +7619,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7627,7 +7630,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7650,16 +7653,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7685,13 +7688,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7709,7 +7712,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7724,24 +7727,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7764,16 +7767,16 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7823,7 +7826,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7838,16 +7841,16 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7855,7 +7858,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7878,13 +7881,13 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7935,7 +7938,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7950,13 +7953,13 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7967,7 +7970,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7993,10 +7996,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8047,7 +8050,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8068,7 +8071,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8082,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8102,13 +8105,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8159,7 +8162,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8174,13 +8177,13 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8191,7 +8194,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8214,17 +8217,17 @@
         <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8273,7 +8276,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8288,13 +8291,13 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8305,7 +8308,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8328,16 +8331,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8363,13 +8366,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8387,7 +8390,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8408,7 +8411,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8442,13 +8445,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8499,7 +8502,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8514,13 +8517,13 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8531,7 +8534,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8554,13 +8557,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8611,7 +8614,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8626,13 +8629,13 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8643,7 +8646,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8666,16 +8669,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8725,7 +8728,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8740,13 +8743,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8757,7 +8760,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8780,13 +8783,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8837,7 +8840,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8858,7 +8861,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8869,11 +8872,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8895,13 +8898,13 @@
         <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8942,7 +8945,7 @@
         <v>134</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
@@ -8951,7 +8954,7 @@
         <v>135</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8972,7 +8975,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8983,11 +8986,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -9009,16 +9012,16 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9067,7 +9070,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9099,7 +9102,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9122,17 +9125,17 @@
         <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9181,7 +9184,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9202,18 +9205,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9236,17 +9239,17 @@
         <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9295,7 +9298,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9316,18 +9319,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9350,19 +9353,19 @@
         <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9387,13 +9390,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9411,7 +9414,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9432,18 +9435,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9466,13 +9469,13 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9523,7 +9526,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9544,18 +9547,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9578,19 +9581,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9639,7 +9642,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9660,7 +9663,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9671,7 +9674,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9694,16 +9697,16 @@
         <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9729,13 +9732,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9753,7 +9756,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9774,18 +9777,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9808,19 +9811,19 @@
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9845,13 +9848,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9869,7 +9872,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9890,18 +9893,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9924,17 +9927,17 @@
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9959,13 +9962,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9983,7 +9986,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10004,18 +10007,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10038,19 +10041,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10075,13 +10078,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10099,7 +10102,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10120,18 +10123,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10154,13 +10157,13 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10211,7 +10214,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10238,12 +10241,12 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10266,13 +10269,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10323,7 +10326,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10344,7 +10347,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10355,11 +10358,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10381,13 +10384,13 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10428,7 +10431,7 @@
         <v>134</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
@@ -10437,7 +10440,7 @@
         <v>135</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10458,7 +10461,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10469,7 +10472,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10492,17 +10495,17 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10527,13 +10530,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10551,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10578,12 +10581,12 @@
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10606,19 +10609,19 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10667,7 +10670,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10688,18 +10691,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10722,19 +10725,19 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10783,7 +10786,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10804,18 +10807,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10838,19 +10841,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10899,7 +10902,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10920,18 +10923,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10954,19 +10957,19 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11015,7 +11018,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11036,7 +11039,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11047,7 +11050,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11070,17 +11073,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11129,7 +11132,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11150,7 +11153,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11161,7 +11164,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11184,13 +11187,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11241,7 +11244,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11259,10 +11262,10 @@
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11273,7 +11276,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11296,13 +11299,13 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11353,7 +11356,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11374,7 +11377,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11385,11 +11388,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11411,13 +11414,13 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11467,7 +11470,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11488,7 +11491,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11499,11 +11502,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11525,16 +11528,16 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11583,7 +11586,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11615,7 +11618,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11638,16 +11641,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11697,7 +11700,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11718,7 +11721,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11729,7 +11732,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11752,13 +11755,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11809,7 +11812,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11830,7 +11833,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11841,11 +11844,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11867,13 +11870,13 @@
         <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11923,7 +11926,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11944,7 +11947,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11955,11 +11958,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11981,16 +11984,16 @@
         <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12039,7 +12042,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12071,7 +12074,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12094,13 +12097,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12151,7 +12154,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12172,7 +12175,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12183,7 +12186,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12206,13 +12209,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12263,7 +12266,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12284,7 +12287,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12295,7 +12298,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12318,13 +12321,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12375,7 +12378,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12396,7 +12399,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12407,7 +12410,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12430,19 +12433,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12491,7 +12494,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12509,10 +12512,10 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12523,7 +12526,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12546,16 +12549,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12605,7 +12608,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12623,21 +12626,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12660,13 +12663,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12717,7 +12720,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12735,21 +12738,21 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12772,16 +12775,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12831,7 +12834,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12849,10 +12852,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12863,7 +12866,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12886,13 +12889,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12943,7 +12946,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12964,10 +12967,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12975,7 +12978,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12998,13 +13001,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13055,7 +13058,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13073,10 +13076,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13087,7 +13090,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13110,13 +13113,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13167,7 +13170,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13188,7 +13191,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13199,11 +13202,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13225,13 +13228,13 @@
         <v>131</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13281,7 +13284,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13302,7 +13305,7 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13313,11 +13316,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13339,16 +13342,16 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13397,7 +13400,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13429,7 +13432,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13452,16 +13455,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13487,13 +13490,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13511,7 +13514,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>86</v>
@@ -13529,21 +13532,21 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13566,13 +13569,13 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13599,13 +13602,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13623,7 +13626,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13641,21 +13644,21 @@
         <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13678,13 +13681,13 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13735,7 +13738,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13750,13 +13753,13 @@
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
@@ -13767,11 +13770,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13790,16 +13793,16 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13849,7 +13852,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13870,7 +13873,7 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
@@ -13881,7 +13884,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13904,16 +13907,16 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13963,7 +13966,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13978,13 +13981,13 @@
         <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-medication.xlsx
@@ -262,6 +262,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Ordering of medication for patient or group</t>
   </si>
   <si>
@@ -459,9 +463,6 @@
   </si>
   <si>
     <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2720,13 +2721,13 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2792,13 +2793,13 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -2809,10 +2810,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2823,7 +2824,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2832,19 +2833,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2894,13 +2895,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2926,10 +2927,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2940,7 +2941,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2949,16 +2950,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3009,19 +3010,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -3041,10 +3042,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -3055,28 +3056,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -3126,19 +3127,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -3158,10 +3159,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3172,7 +3173,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -3184,16 +3185,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3219,13 +3220,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3243,19 +3244,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -3275,21 +3276,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -3301,16 +3302,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3360,19 +3361,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -3381,7 +3382,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -3392,14 +3393,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3418,16 +3419,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3477,7 +3478,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3498,7 +3499,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3509,10 +3510,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3520,7 +3521,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -3535,13 +3536,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3580,17 +3581,17 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3602,7 +3603,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -3622,13 +3623,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>80</v>
@@ -3638,10 +3639,10 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>80</v>
@@ -3650,13 +3651,13 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3707,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3719,7 +3720,7 @@
         <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3728,7 +3729,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3742,7 +3743,7 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>146</v>
@@ -3755,10 +3756,10 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>80</v>
@@ -3824,7 +3825,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3836,7 +3837,7 @@
         <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3859,7 +3860,7 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>151</v>
@@ -3869,13 +3870,13 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>80</v>
@@ -3941,7 +3942,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3953,7 +3954,7 @@
         <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3976,7 +3977,7 @@
         <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>156</v>
@@ -3989,10 +3990,10 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>80</v>
@@ -4058,7 +4059,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4070,7 +4071,7 @@
         <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -4093,7 +4094,7 @@
         <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>161</v>
@@ -4106,10 +4107,10 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
@@ -4175,7 +4176,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4187,7 +4188,7 @@
         <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -4210,7 +4211,7 @@
         <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>166</v>
@@ -4226,7 +4227,7 @@
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -4292,7 +4293,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4304,7 +4305,7 @@
         <v>144</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4327,7 +4328,7 @@
         <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>171</v>
@@ -4340,10 +4341,10 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -4409,7 +4410,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4421,7 +4422,7 @@
         <v>144</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4444,7 +4445,7 @@
         <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>176</v>
@@ -4457,10 +4458,10 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -4526,7 +4527,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4538,7 +4539,7 @@
         <v>144</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4561,7 +4562,7 @@
         <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>180</v>
@@ -4574,10 +4575,10 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4643,7 +4644,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4655,7 +4656,7 @@
         <v>144</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4695,13 +4696,13 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>186</v>
@@ -4774,7 +4775,7 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4783,7 +4784,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4811,7 +4812,7 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4874,7 +4875,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>191</v>
@@ -4889,7 +4890,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>197</v>
@@ -4925,7 +4926,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -5008,7 +5009,7 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>197</v>
@@ -5042,7 +5043,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -5117,7 +5118,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -5169,7 +5170,7 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>214</v>
@@ -5216,7 +5217,7 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>216</v>
@@ -5225,7 +5226,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>217</v>
@@ -5240,7 +5241,7 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -5274,19 +5275,19 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>220</v>
@@ -5353,13 +5354,13 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5374,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5393,7 +5394,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5402,7 +5403,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>231</v>
@@ -5472,13 +5473,13 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5509,10 +5510,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5521,10 +5522,10 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>243</v>
@@ -5591,13 +5592,13 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5628,10 +5629,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5640,7 +5641,7 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>207</v>
@@ -5708,13 +5709,13 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5748,7 +5749,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5757,7 +5758,7 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>263</v>
@@ -5823,13 +5824,13 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5863,7 +5864,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5872,7 +5873,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>271</v>
@@ -5940,13 +5941,13 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5977,22 +5978,22 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>279</v>
@@ -6054,16 +6055,16 @@
         <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>284</v>
@@ -6097,10 +6098,10 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -6174,13 +6175,13 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>295</v>
@@ -6211,22 +6212,22 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>298</v>
@@ -6286,16 +6287,16 @@
         <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>302</v>
@@ -6326,13 +6327,13 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -6410,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6444,7 +6445,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6453,10 +6454,10 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>313</v>
@@ -6519,13 +6520,13 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>317</v>
@@ -6559,16 +6560,16 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>321</v>
@@ -6636,13 +6637,13 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6676,7 +6677,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6685,7 +6686,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>327</v>
@@ -6751,13 +6752,13 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6788,19 +6789,19 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>332</v>
@@ -6865,16 +6866,16 @@
         <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>338</v>
@@ -6905,19 +6906,19 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>344</v>
@@ -6982,16 +6983,16 @@
         <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -7025,10 +7026,10 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
@@ -7102,13 +7103,13 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>354</v>
@@ -7223,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>362</v>
@@ -7254,13 +7255,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -7332,7 +7333,7 @@
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7369,19 +7370,19 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>370</v>
@@ -7449,13 +7450,13 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7492,7 +7493,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -7564,13 +7565,13 @@
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>375</v>
@@ -7607,13 +7608,13 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>231</v>
@@ -7681,13 +7682,13 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>384</v>
@@ -7721,10 +7722,10 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7796,13 +7797,13 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7919,7 +7920,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>398</v>
@@ -8036,7 +8037,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>408</v>
@@ -8079,7 +8080,7 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>411</v>
@@ -8151,7 +8152,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>414</v>
@@ -8194,10 +8195,10 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>417</v>
@@ -8266,7 +8267,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8309,7 +8310,7 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>420</v>
@@ -8381,7 +8382,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>423</v>
@@ -8415,16 +8416,16 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>192</v>
@@ -8492,13 +8493,13 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>429</v>
@@ -8532,7 +8533,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8609,13 +8610,13 @@
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8730,7 +8731,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>442</v>
@@ -8767,7 +8768,7 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8845,7 +8846,7 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>448</v>
@@ -8996,7 +8997,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -9071,7 +9072,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -9123,7 +9124,7 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>214</v>
@@ -9170,7 +9171,7 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>216</v>
@@ -9179,7 +9180,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>217</v>
@@ -9194,7 +9195,7 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9234,13 +9235,13 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>462</v>
@@ -9313,7 +9314,7 @@
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9322,7 +9323,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9347,7 +9348,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9356,7 +9357,7 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>466</v>
@@ -9424,13 +9425,13 @@
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -9461,19 +9462,19 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>207</v>
@@ -9541,13 +9542,13 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9590,7 +9591,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>231</v>
@@ -9666,7 +9667,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9700,7 +9701,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9709,7 +9710,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>207</v>
@@ -9775,13 +9776,13 @@
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9815,7 +9816,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9824,7 +9825,7 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>493</v>
@@ -9894,13 +9895,13 @@
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9934,7 +9935,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9943,7 +9944,7 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>501</v>
@@ -10011,13 +10012,13 @@
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -10051,16 +10052,16 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>231</v>
@@ -10130,13 +10131,13 @@
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -10170,7 +10171,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -10179,7 +10180,7 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>231</v>
@@ -10247,13 +10248,13 @@
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -10287,7 +10288,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10296,7 +10297,7 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>231</v>
@@ -10366,13 +10367,13 @@
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10415,7 +10416,7 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>540</v>
@@ -10487,7 +10488,7 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10521,7 +10522,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10596,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10648,7 +10649,7 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>214</v>
@@ -10695,7 +10696,7 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>216</v>
@@ -10704,7 +10705,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>217</v>
@@ -10719,7 +10720,7 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10753,7 +10754,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10762,7 +10763,7 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>231</v>
@@ -10830,13 +10831,13 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10870,7 +10871,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10879,7 +10880,7 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>556</v>
@@ -10949,13 +10950,13 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10989,7 +10990,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10998,7 +10999,7 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>564</v>
@@ -11068,13 +11069,13 @@
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -11108,7 +11109,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11117,7 +11118,7 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>573</v>
@@ -11187,13 +11188,13 @@
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11227,7 +11228,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11236,7 +11237,7 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>582</v>
@@ -11306,13 +11307,13 @@
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11346,7 +11347,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11355,7 +11356,7 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>582</v>
@@ -11423,13 +11424,13 @@
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11463,7 +11464,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11538,13 +11539,13 @@
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11578,7 +11579,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11653,7 +11654,7 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -11705,7 +11706,7 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>214</v>
@@ -11776,7 +11777,7 @@
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11816,13 +11817,13 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>462</v>
@@ -11895,7 +11896,7 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
@@ -11904,7 +11905,7 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11929,7 +11930,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12006,13 +12007,13 @@
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -12046,7 +12047,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12121,7 +12122,7 @@
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -12173,7 +12174,7 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>214</v>
@@ -12244,7 +12245,7 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -12284,13 +12285,13 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>462</v>
@@ -12363,7 +12364,7 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12372,7 +12373,7 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12397,7 +12398,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12472,13 +12473,13 @@
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12512,7 +12513,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12587,13 +12588,13 @@
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12627,7 +12628,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12702,13 +12703,13 @@
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12742,7 +12743,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12821,13 +12822,13 @@
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -12861,7 +12862,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12938,13 +12939,13 @@
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
@@ -12978,7 +12979,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13053,13 +13054,13 @@
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -13093,7 +13094,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13170,13 +13171,13 @@
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
@@ -13210,7 +13211,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13285,13 +13286,13 @@
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13325,7 +13326,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13400,13 +13401,13 @@
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13440,7 +13441,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13515,7 +13516,7 @@
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
@@ -13567,7 +13568,7 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>214</v>
@@ -13638,7 +13639,7 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
@@ -13678,13 +13679,13 @@
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>462</v>
@@ -13757,7 +13758,7 @@
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -13766,7 +13767,7 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13788,10 +13789,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13865,16 +13866,16 @@
         <v>662</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -13908,7 +13909,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -13983,13 +13984,13 @@
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -14023,7 +14024,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -14098,13 +14099,13 @@
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>682</v>
@@ -14221,7 +14222,7 @@
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
@@ -14338,7 +14339,7 @@
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>696</v>
